--- a/teaching/traditional_assets/database/data/namibia/namibia_telecom_wireless.xlsx
+++ b/teaching/traditional_assets/database/data/namibia/namibia_telecom_wireless.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nmse_pnh" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,88 +593,115 @@
         </is>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="I2">
-        <v>0.5845824411134903</v>
+        <v>0.144</v>
       </c>
       <c r="J2">
-        <v>0.5845824411134903</v>
+        <v>0.1175466666666667</v>
       </c>
       <c r="K2">
-        <v>0.537</v>
+        <v>1.1</v>
       </c>
       <c r="L2">
-        <v>1.149892933618844</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="M2">
-        <v>5.87</v>
+        <v>0.1896</v>
       </c>
       <c r="N2">
-        <v>0.2795238095238095</v>
+        <v>0.005096774193548387</v>
       </c>
       <c r="O2">
-        <v>10.93109869646182</v>
+        <v>0.1723636363636363</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1896</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.005096774193548387</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.1723636363636363</v>
       </c>
       <c r="S2">
-        <v>5.87</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.017</v>
+        <v>0.351</v>
       </c>
       <c r="V2">
-        <v>0.0008095238095238096</v>
+        <v>0.00943548387096774</v>
+      </c>
+      <c r="W2">
+        <v>0.05164319248826291</v>
       </c>
       <c r="X2">
-        <v>0.06893725364597934</v>
+        <v>0.06637660457533698</v>
+      </c>
+      <c r="Y2">
+        <v>-0.01473341208707406</v>
+      </c>
+      <c r="Z2">
+        <v>0.3523277117489548</v>
+      </c>
+      <c r="AA2">
+        <v>0.0414149480903838</v>
       </c>
       <c r="AB2">
-        <v>0.06893725364597934</v>
+        <v>0.06219816988869325</v>
+      </c>
+      <c r="AC2">
+        <v>-0.02078322179830944</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="AG2">
-        <v>-0.017</v>
+        <v>5.299</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.131855309218203</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.1461836998706339</v>
       </c>
       <c r="AJ2">
-        <v>-0.0008101796692560645</v>
+        <v>0.1246852867126285</v>
       </c>
       <c r="AK2">
-        <v>-0.0008507231146474503</v>
+        <v>0.1383587038826079</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN2">
+        <v>3.005319148936171</v>
+      </c>
+      <c r="AO2">
+        <v>6.206896551724139</v>
+      </c>
+      <c r="AP2">
+        <v>2.818617021276596</v>
+      </c>
+      <c r="AQ2">
+        <v>6.35294117647059</v>
       </c>
     </row>
     <row r="3">
@@ -692,87 +721,8832 @@
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="I3">
-        <v>0.5845824411134903</v>
+        <v>0.144</v>
       </c>
       <c r="J3">
-        <v>0.5845824411134903</v>
+        <v>0.1175466666666667</v>
       </c>
       <c r="K3">
-        <v>0.537</v>
+        <v>1.1</v>
       </c>
       <c r="L3">
-        <v>1.149892933618844</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="M3">
-        <v>5.87</v>
+        <v>0.1896</v>
       </c>
       <c r="N3">
-        <v>0.2795238095238095</v>
+        <v>0.005096774193548387</v>
       </c>
       <c r="O3">
-        <v>10.93109869646182</v>
+        <v>0.1723636363636363</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.1896</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.005096774193548387</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.1723636363636363</v>
       </c>
       <c r="S3">
-        <v>5.87</v>
+        <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.351</v>
+      </c>
+      <c r="V3">
+        <v>0.00943548387096774</v>
+      </c>
+      <c r="W3">
+        <v>0.05164319248826291</v>
+      </c>
+      <c r="X3">
+        <v>0.06637660457533698</v>
+      </c>
+      <c r="Y3">
+        <v>-0.01473341208707406</v>
+      </c>
+      <c r="Z3">
+        <v>0.3523277117489548</v>
+      </c>
+      <c r="AA3">
+        <v>0.0414149480903838</v>
+      </c>
+      <c r="AB3">
+        <v>0.06219816988869325</v>
+      </c>
+      <c r="AC3">
+        <v>-0.02078322179830944</v>
+      </c>
+      <c r="AD3">
+        <v>5.65</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>5.65</v>
+      </c>
+      <c r="AG3">
+        <v>5.299</v>
+      </c>
+      <c r="AH3">
+        <v>0.131855309218203</v>
+      </c>
+      <c r="AI3">
+        <v>0.1461836998706339</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1246852867126285</v>
+      </c>
+      <c r="AK3">
+        <v>0.1383587038826079</v>
+      </c>
+      <c r="AL3">
+        <v>0.174</v>
+      </c>
+      <c r="AM3">
+        <v>0.17</v>
+      </c>
+      <c r="AN3">
+        <v>3.005319148936171</v>
+      </c>
+      <c r="AO3">
+        <v>6.206896551724139</v>
+      </c>
+      <c r="AP3">
+        <v>2.818617021276596</v>
+      </c>
+      <c r="AQ3">
+        <v>6.35294117647059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Paratus Namibia Holdings Limited (NMSE:PNH)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NMSE:PNH</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Telecom (Wireless)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.131855309218203</v>
+      </c>
+      <c r="F2">
+        <v>0.37</v>
+      </c>
+      <c r="G2">
+        <v>37.2</v>
+      </c>
+      <c r="H2">
+        <v>31.4757171314368</v>
+      </c>
+      <c r="I2">
+        <v>42.499</v>
+      </c>
+      <c r="J2">
+        <v>46.9792171314368</v>
+      </c>
+      <c r="K2">
+        <v>5.65</v>
+      </c>
+      <c r="L2">
+        <v>15.8545</v>
+      </c>
+      <c r="M2">
+        <v>0.0621981698886932</v>
+      </c>
+      <c r="N2">
+        <v>0.0571534862726611</v>
+      </c>
+      <c r="O2">
+        <v>0.0346870600934461</v>
+      </c>
+      <c r="P2">
+        <v>0.015368</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.06637660457533701</v>
+      </c>
+      <c r="T2">
+        <v>0.0816941686867636</v>
+      </c>
+      <c r="U2">
+        <v>0.6955324769811591</v>
+      </c>
+      <c r="V2">
+        <v>0.8821915010595081</v>
+      </c>
+      <c r="W2">
+        <v>4.546320982541179</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>37.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.08206173897596897</v>
+      </c>
+      <c r="AC2">
+        <v>0.05101038249036188</v>
+      </c>
+      <c r="AD2">
+        <v>0.32</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>1</v>
       </c>
+      <c r="AG2">
+        <v>1.88</v>
+      </c>
+      <c r="AH2">
+        <v>0.251</v>
+      </c>
+      <c r="AI2">
+        <v>1.633</v>
+      </c>
+      <c r="AJ2">
+        <v>5.65</v>
+      </c>
+      <c r="AK2">
+        <v>5.65</v>
+      </c>
+      <c r="AL2">
+        <v>0.174</v>
+      </c>
+      <c r="AM2">
+        <v>5.65</v>
+      </c>
+      <c r="AN2">
+        <v>0.351</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06103358243269177</v>
+      </c>
+      <c r="C2">
+        <v>43.8067054892632</v>
+      </c>
+      <c r="D2">
+        <v>43.4557054892632</v>
+      </c>
+      <c r="E2">
+        <v>-5.65</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.351</v>
+      </c>
+      <c r="H2">
+        <v>37.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.88</v>
+      </c>
+      <c r="K2">
+        <v>0.251</v>
+      </c>
+      <c r="L2">
+        <v>1.629</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.629</v>
+      </c>
+      <c r="O2">
+        <v>0.52128</v>
+      </c>
+      <c r="P2">
+        <v>1.10772</v>
+      </c>
+      <c r="Q2">
+        <v>1.35872</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06103358243269177</v>
+      </c>
+      <c r="T2">
+        <v>0.6304226924540495</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.32</v>
+      </c>
+      <c r="W2">
+        <v>0.011016</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06088519496890715</v>
+      </c>
+      <c r="C3">
+        <v>43.50320805886501</v>
+      </c>
+      <c r="D3">
+        <v>43.58070805886501</v>
+      </c>
+      <c r="E3">
+        <v>-5.221500000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.4285</v>
+      </c>
+      <c r="G3">
+        <v>0.351</v>
+      </c>
+      <c r="H3">
+        <v>37.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.88</v>
+      </c>
+      <c r="K3">
+        <v>0.251</v>
+      </c>
+      <c r="L3">
+        <v>1.629</v>
+      </c>
+      <c r="M3">
+        <v>0.0069417</v>
+      </c>
+      <c r="N3">
+        <v>1.6220583</v>
+      </c>
+      <c r="O3">
+        <v>0.519058656</v>
+      </c>
+      <c r="P3">
+        <v>1.102999644</v>
+      </c>
+      <c r="Q3">
+        <v>1.353999644</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06138892421101733</v>
+      </c>
+      <c r="T3">
+        <v>0.6347528685234308</v>
+      </c>
       <c r="U3">
-        <v>0.017</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.0008095238095238096</v>
-      </c>
-      <c r="X3">
-        <v>0.06893725364597934</v>
-      </c>
-      <c r="AB3">
-        <v>0.06893725364597934</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-0.017</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.0008101796692560645</v>
-      </c>
-      <c r="AK3">
-        <v>-0.0008507231146474503</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
+        <v>0.32</v>
+      </c>
+      <c r="W3">
+        <v>0.011016</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>234.6687410864774</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06073680750512254</v>
+      </c>
+      <c r="C4">
+        <v>43.20043185574234</v>
+      </c>
+      <c r="D4">
+        <v>43.70643185574234</v>
+      </c>
+      <c r="E4">
+        <v>-4.793</v>
+      </c>
+      <c r="F4">
+        <v>0.8570000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.351</v>
+      </c>
+      <c r="H4">
+        <v>37.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.88</v>
+      </c>
+      <c r="K4">
+        <v>0.251</v>
+      </c>
+      <c r="L4">
+        <v>1.629</v>
+      </c>
+      <c r="M4">
+        <v>0.0138834</v>
+      </c>
+      <c r="N4">
+        <v>1.6151166</v>
+      </c>
+      <c r="O4">
+        <v>0.5168373119999999</v>
+      </c>
+      <c r="P4">
+        <v>1.098279288</v>
+      </c>
+      <c r="Q4">
+        <v>1.349279288</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06175151786236993</v>
+      </c>
+      <c r="T4">
+        <v>0.6391714155330036</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.32</v>
+      </c>
+      <c r="W4">
+        <v>0.011016</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>117.3343705432387</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06058842004133793</v>
+      </c>
+      <c r="C5">
+        <v>42.89838313985133</v>
+      </c>
+      <c r="D5">
+        <v>43.83288313985133</v>
+      </c>
+      <c r="E5">
+        <v>-4.3645</v>
+      </c>
+      <c r="F5">
+        <v>1.2855</v>
+      </c>
+      <c r="G5">
+        <v>0.351</v>
+      </c>
+      <c r="H5">
+        <v>37.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.88</v>
+      </c>
+      <c r="K5">
+        <v>0.251</v>
+      </c>
+      <c r="L5">
+        <v>1.629</v>
+      </c>
+      <c r="M5">
+        <v>0.0208251</v>
+      </c>
+      <c r="N5">
+        <v>1.6081749</v>
+      </c>
+      <c r="O5">
+        <v>0.514615968</v>
+      </c>
+      <c r="P5">
+        <v>1.093558932</v>
+      </c>
+      <c r="Q5">
+        <v>1.344558932</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.0621215876714824</v>
+      </c>
+      <c r="T5">
+        <v>0.6436810666046295</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.32</v>
+      </c>
+      <c r="W5">
+        <v>0.011016</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>78.22291369549247</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06044003257755331</v>
+      </c>
+      <c r="C6">
+        <v>42.59706824380344</v>
+      </c>
+      <c r="D6">
+        <v>43.96006824380344</v>
+      </c>
+      <c r="E6">
+        <v>-3.936</v>
+      </c>
+      <c r="F6">
+        <v>1.714</v>
+      </c>
+      <c r="G6">
+        <v>0.351</v>
+      </c>
+      <c r="H6">
+        <v>37.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.88</v>
+      </c>
+      <c r="K6">
+        <v>0.251</v>
+      </c>
+      <c r="L6">
+        <v>1.629</v>
+      </c>
+      <c r="M6">
+        <v>0.0277668</v>
+      </c>
+      <c r="N6">
+        <v>1.6012332</v>
+      </c>
+      <c r="O6">
+        <v>0.512394624</v>
+      </c>
+      <c r="P6">
+        <v>1.088838576</v>
+      </c>
+      <c r="Q6">
+        <v>1.339838576</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0624993672682847</v>
+      </c>
+      <c r="T6">
+        <v>0.6482846687402475</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.32</v>
+      </c>
+      <c r="W6">
+        <v>0.011016</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>58.66718527161935</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06029164511376871</v>
+      </c>
+      <c r="C7">
+        <v>42.29649357392256</v>
+      </c>
+      <c r="D7">
+        <v>44.08799357392256</v>
+      </c>
+      <c r="E7">
+        <v>-3.5075</v>
+      </c>
+      <c r="F7">
+        <v>2.1425</v>
+      </c>
+      <c r="G7">
+        <v>0.351</v>
+      </c>
+      <c r="H7">
+        <v>37.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.88</v>
+      </c>
+      <c r="K7">
+        <v>0.251</v>
+      </c>
+      <c r="L7">
+        <v>1.629</v>
+      </c>
+      <c r="M7">
+        <v>0.0347085</v>
+      </c>
+      <c r="N7">
+        <v>1.5942915</v>
+      </c>
+      <c r="O7">
+        <v>0.51017328</v>
+      </c>
+      <c r="P7">
+        <v>1.08411822</v>
+      </c>
+      <c r="Q7">
+        <v>1.33511822</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06288510011975654</v>
+      </c>
+      <c r="T7">
+        <v>0.6529851888155629</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.32</v>
+      </c>
+      <c r="W7">
+        <v>0.011016</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>46.93374821729548</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06014325764998408</v>
+      </c>
+      <c r="C8">
+        <v>41.99666561132081</v>
+      </c>
+      <c r="D8">
+        <v>44.21666561132081</v>
+      </c>
+      <c r="E8">
+        <v>-3.079</v>
+      </c>
+      <c r="F8">
+        <v>2.571</v>
+      </c>
+      <c r="G8">
+        <v>0.351</v>
+      </c>
+      <c r="H8">
+        <v>37.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.88</v>
+      </c>
+      <c r="K8">
+        <v>0.251</v>
+      </c>
+      <c r="L8">
+        <v>1.629</v>
+      </c>
+      <c r="M8">
+        <v>0.0416502</v>
+      </c>
+      <c r="N8">
+        <v>1.5873498</v>
+      </c>
+      <c r="O8">
+        <v>0.507951936</v>
+      </c>
+      <c r="P8">
+        <v>1.079397864</v>
+      </c>
+      <c r="Q8">
+        <v>1.330397864</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06327904005317456</v>
+      </c>
+      <c r="T8">
+        <v>0.6577857199563103</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.32</v>
+      </c>
+      <c r="W8">
+        <v>0.011016</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>39.11145684774623</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05999487018619947</v>
+      </c>
+      <c r="C9">
+        <v>41.69759091299289</v>
+      </c>
+      <c r="D9">
+        <v>44.34609091299289</v>
+      </c>
+      <c r="E9">
+        <v>-2.6505</v>
+      </c>
+      <c r="F9">
+        <v>2.9995</v>
+      </c>
+      <c r="G9">
+        <v>0.351</v>
+      </c>
+      <c r="H9">
+        <v>37.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.88</v>
+      </c>
+      <c r="K9">
+        <v>0.251</v>
+      </c>
+      <c r="L9">
+        <v>1.629</v>
+      </c>
+      <c r="M9">
+        <v>0.0485919</v>
+      </c>
+      <c r="N9">
+        <v>1.5804081</v>
+      </c>
+      <c r="O9">
+        <v>0.505730592</v>
+      </c>
+      <c r="P9">
+        <v>1.074677508</v>
+      </c>
+      <c r="Q9">
+        <v>1.325677508</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06368145181311771</v>
+      </c>
+      <c r="T9">
+        <v>0.6626894883258911</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.32</v>
+      </c>
+      <c r="W9">
+        <v>0.011016</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>33.52410586949677</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05984648272241485</v>
+      </c>
+      <c r="C10">
+        <v>41.39927611293012</v>
+      </c>
+      <c r="D10">
+        <v>44.47627611293012</v>
+      </c>
+      <c r="E10">
+        <v>-2.222</v>
+      </c>
+      <c r="F10">
+        <v>3.428</v>
+      </c>
+      <c r="G10">
+        <v>0.351</v>
+      </c>
+      <c r="H10">
+        <v>37.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.88</v>
+      </c>
+      <c r="K10">
+        <v>0.251</v>
+      </c>
+      <c r="L10">
+        <v>1.629</v>
+      </c>
+      <c r="M10">
+        <v>0.0555336</v>
+      </c>
+      <c r="N10">
+        <v>1.5734664</v>
+      </c>
+      <c r="O10">
+        <v>0.5035092480000001</v>
+      </c>
+      <c r="P10">
+        <v>1.069957152</v>
+      </c>
+      <c r="Q10">
+        <v>1.320957152</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06409261165479875</v>
+      </c>
+      <c r="T10">
+        <v>0.6676998603556802</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.32</v>
+      </c>
+      <c r="W10">
+        <v>0.011016</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>29.33359263580967</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05969809525863025</v>
+      </c>
+      <c r="C11">
+        <v>41.10172792325377</v>
+      </c>
+      <c r="D11">
+        <v>44.60722792325377</v>
+      </c>
+      <c r="E11">
+        <v>-1.7935</v>
+      </c>
+      <c r="F11">
+        <v>3.8565</v>
+      </c>
+      <c r="G11">
+        <v>0.351</v>
+      </c>
+      <c r="H11">
+        <v>37.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.88</v>
+      </c>
+      <c r="K11">
+        <v>0.251</v>
+      </c>
+      <c r="L11">
+        <v>1.629</v>
+      </c>
+      <c r="M11">
+        <v>0.0624753</v>
+      </c>
+      <c r="N11">
+        <v>1.5665247</v>
+      </c>
+      <c r="O11">
+        <v>0.501287904</v>
+      </c>
+      <c r="P11">
+        <v>1.065236796</v>
+      </c>
+      <c r="Q11">
+        <v>1.316236796</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06451280797651676</v>
+      </c>
+      <c r="T11">
+        <v>0.6728203504520581</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.32</v>
+      </c>
+      <c r="W11">
+        <v>0.011016</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>26.07430456516416</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05954970779484564</v>
+      </c>
+      <c r="C12">
+        <v>40.80495313536878</v>
+      </c>
+      <c r="D12">
+        <v>44.73895313536878</v>
+      </c>
+      <c r="E12">
+        <v>-1.365</v>
+      </c>
+      <c r="F12">
+        <v>4.285</v>
+      </c>
+      <c r="G12">
+        <v>0.351</v>
+      </c>
+      <c r="H12">
+        <v>37.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.88</v>
+      </c>
+      <c r="K12">
+        <v>0.251</v>
+      </c>
+      <c r="L12">
+        <v>1.629</v>
+      </c>
+      <c r="M12">
+        <v>0.06941699999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.559583</v>
+      </c>
+      <c r="O12">
+        <v>0.49906656</v>
+      </c>
+      <c r="P12">
+        <v>1.06051644</v>
+      </c>
+      <c r="Q12">
+        <v>1.31151644</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06494234199427293</v>
+      </c>
+      <c r="T12">
+        <v>0.6780546292172444</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.32</v>
+      </c>
+      <c r="W12">
+        <v>0.011016</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>23.46687410864774</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05940132033106101</v>
+      </c>
+      <c r="C13">
+        <v>40.50895862113781</v>
+      </c>
+      <c r="D13">
+        <v>44.87145862113781</v>
+      </c>
+      <c r="E13">
+        <v>-0.9365000000000006</v>
+      </c>
+      <c r="F13">
+        <v>4.7135</v>
+      </c>
+      <c r="G13">
+        <v>0.351</v>
+      </c>
+      <c r="H13">
+        <v>37.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.88</v>
+      </c>
+      <c r="K13">
+        <v>0.251</v>
+      </c>
+      <c r="L13">
+        <v>1.629</v>
+      </c>
+      <c r="M13">
+        <v>0.07635869999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.5526413</v>
+      </c>
+      <c r="O13">
+        <v>0.496845216</v>
+      </c>
+      <c r="P13">
+        <v>1.055796084</v>
+      </c>
+      <c r="Q13">
+        <v>1.306796084</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0653815284618663</v>
+      </c>
+      <c r="T13">
+        <v>0.6834065322243448</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.32</v>
+      </c>
+      <c r="W13">
+        <v>0.011016</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>21.33352191695249</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.0592529328672764</v>
+      </c>
+      <c r="C14">
+        <v>40.21375133407616</v>
+      </c>
+      <c r="D14">
+        <v>45.00475133407617</v>
+      </c>
+      <c r="E14">
+        <v>-0.508</v>
+      </c>
+      <c r="F14">
+        <v>5.142</v>
+      </c>
+      <c r="G14">
+        <v>0.351</v>
+      </c>
+      <c r="H14">
+        <v>37.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.88</v>
+      </c>
+      <c r="K14">
+        <v>0.251</v>
+      </c>
+      <c r="L14">
+        <v>1.629</v>
+      </c>
+      <c r="M14">
+        <v>0.0833004</v>
+      </c>
+      <c r="N14">
+        <v>1.5456996</v>
+      </c>
+      <c r="O14">
+        <v>0.494623872</v>
+      </c>
+      <c r="P14">
+        <v>1.051075728</v>
+      </c>
+      <c r="Q14">
+        <v>1.302075728</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06583069644008682</v>
+      </c>
+      <c r="T14">
+        <v>0.6888800693906977</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.32</v>
+      </c>
+      <c r="W14">
+        <v>0.011016</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>19.55572842387312</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05910454540349179</v>
+      </c>
+      <c r="C15">
+        <v>39.91933831056831</v>
+      </c>
+      <c r="D15">
+        <v>45.13883831056832</v>
+      </c>
+      <c r="E15">
+        <v>-0.07950000000000035</v>
+      </c>
+      <c r="F15">
+        <v>5.5705</v>
+      </c>
+      <c r="G15">
+        <v>0.351</v>
+      </c>
+      <c r="H15">
+        <v>37.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.88</v>
+      </c>
+      <c r="K15">
+        <v>0.251</v>
+      </c>
+      <c r="L15">
+        <v>1.629</v>
+      </c>
+      <c r="M15">
+        <v>0.09024209999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.5387579</v>
+      </c>
+      <c r="O15">
+        <v>0.492402528</v>
+      </c>
+      <c r="P15">
+        <v>1.046355372</v>
+      </c>
+      <c r="Q15">
+        <v>1.297355372</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06629019011895608</v>
+      </c>
+      <c r="T15">
+        <v>0.6944794349976563</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.32</v>
+      </c>
+      <c r="W15">
+        <v>0.011016</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>18.05144162203672</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05895615793970718</v>
+      </c>
+      <c r="C16">
+        <v>39.62572667110604</v>
+      </c>
+      <c r="D16">
+        <v>45.27372667110604</v>
+      </c>
+      <c r="E16">
+        <v>0.3490000000000002</v>
+      </c>
+      <c r="F16">
+        <v>5.999000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.351</v>
+      </c>
+      <c r="H16">
+        <v>37.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.88</v>
+      </c>
+      <c r="K16">
+        <v>0.251</v>
+      </c>
+      <c r="L16">
+        <v>1.629</v>
+      </c>
+      <c r="M16">
+        <v>0.0971838</v>
+      </c>
+      <c r="N16">
+        <v>1.5318162</v>
+      </c>
+      <c r="O16">
+        <v>0.490181184</v>
+      </c>
+      <c r="P16">
+        <v>1.041635016</v>
+      </c>
+      <c r="Q16">
+        <v>1.292635016</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06676036969733393</v>
+      </c>
+      <c r="T16">
+        <v>0.700209018409428</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.32</v>
+      </c>
+      <c r="W16">
+        <v>0.011016</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>16.76205293474838</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05880777047592257</v>
+      </c>
+      <c r="C17">
+        <v>39.33292362154879</v>
+      </c>
+      <c r="D17">
+        <v>45.4094236215488</v>
+      </c>
+      <c r="E17">
+        <v>0.7774999999999999</v>
+      </c>
+      <c r="F17">
+        <v>6.4275</v>
+      </c>
+      <c r="G17">
+        <v>0.351</v>
+      </c>
+      <c r="H17">
+        <v>37.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.88</v>
+      </c>
+      <c r="K17">
+        <v>0.251</v>
+      </c>
+      <c r="L17">
+        <v>1.629</v>
+      </c>
+      <c r="M17">
+        <v>0.1041255</v>
+      </c>
+      <c r="N17">
+        <v>1.5248745</v>
+      </c>
+      <c r="O17">
+        <v>0.48795984</v>
+      </c>
+      <c r="P17">
+        <v>1.03691466</v>
+      </c>
+      <c r="Q17">
+        <v>1.28791466</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06724161232461479</v>
+      </c>
+      <c r="T17">
+        <v>0.7060734155485354</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.32</v>
+      </c>
+      <c r="W17">
+        <v>0.011016</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>15.64458273909849</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05865938301213795</v>
+      </c>
+      <c r="C18">
+        <v>39.04093645440705</v>
+      </c>
+      <c r="D18">
+        <v>45.54593645440706</v>
+      </c>
+      <c r="E18">
+        <v>1.206</v>
+      </c>
+      <c r="F18">
+        <v>6.856000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.351</v>
+      </c>
+      <c r="H18">
+        <v>37.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.88</v>
+      </c>
+      <c r="K18">
+        <v>0.251</v>
+      </c>
+      <c r="L18">
+        <v>1.629</v>
+      </c>
+      <c r="M18">
+        <v>0.1110672</v>
+      </c>
+      <c r="N18">
+        <v>1.5179328</v>
+      </c>
+      <c r="O18">
+        <v>0.485738496</v>
+      </c>
+      <c r="P18">
+        <v>1.032194304</v>
+      </c>
+      <c r="Q18">
+        <v>1.283194304</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06773431310968804</v>
+      </c>
+      <c r="T18">
+        <v>0.712077441190955</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.32</v>
+      </c>
+      <c r="W18">
+        <v>0.011016</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>14.66679631790484</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05851099554835333</v>
+      </c>
+      <c r="C19">
+        <v>38.74977255014859</v>
+      </c>
+      <c r="D19">
+        <v>45.68327255014859</v>
+      </c>
+      <c r="E19">
+        <v>1.6345</v>
+      </c>
+      <c r="F19">
+        <v>7.2845</v>
+      </c>
+      <c r="G19">
+        <v>0.351</v>
+      </c>
+      <c r="H19">
+        <v>37.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.88</v>
+      </c>
+      <c r="K19">
+        <v>0.251</v>
+      </c>
+      <c r="L19">
+        <v>1.629</v>
+      </c>
+      <c r="M19">
+        <v>0.1180089</v>
+      </c>
+      <c r="N19">
+        <v>1.5109911</v>
+      </c>
+      <c r="O19">
+        <v>0.483517152</v>
+      </c>
+      <c r="P19">
+        <v>1.027473948</v>
+      </c>
+      <c r="Q19">
+        <v>1.278473948</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06823888620283534</v>
+      </c>
+      <c r="T19">
+        <v>0.7182261421500593</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.32</v>
+      </c>
+      <c r="W19">
+        <v>0.011016</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>13.8040435933222</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05855844808456873</v>
+      </c>
+      <c r="C20">
+        <v>38.27726411648047</v>
+      </c>
+      <c r="D20">
+        <v>45.63926411648048</v>
+      </c>
+      <c r="E20">
+        <v>2.063</v>
+      </c>
+      <c r="F20">
+        <v>7.713</v>
+      </c>
+      <c r="G20">
+        <v>0.351</v>
+      </c>
+      <c r="H20">
+        <v>37.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.88</v>
+      </c>
+      <c r="K20">
+        <v>0.251</v>
+      </c>
+      <c r="L20">
+        <v>1.629</v>
+      </c>
+      <c r="M20">
+        <v>0.1372914</v>
+      </c>
+      <c r="N20">
+        <v>1.4917086</v>
+      </c>
+      <c r="O20">
+        <v>0.477346752</v>
+      </c>
+      <c r="P20">
+        <v>1.014361848</v>
+      </c>
+      <c r="Q20">
+        <v>1.265361848</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06875576595679113</v>
+      </c>
+      <c r="T20">
+        <v>0.7245248114252393</v>
+      </c>
+      <c r="U20">
+        <v>0.0178</v>
+      </c>
+      <c r="V20">
+        <v>0.32</v>
+      </c>
+      <c r="W20">
+        <v>0.012104</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>11.86527342572077</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05842094062078411</v>
+      </c>
+      <c r="C21">
+        <v>37.97652509536935</v>
+      </c>
+      <c r="D21">
+        <v>45.76702509536936</v>
+      </c>
+      <c r="E21">
+        <v>2.4915</v>
+      </c>
+      <c r="F21">
+        <v>8.141500000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.351</v>
+      </c>
+      <c r="H21">
+        <v>37.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.88</v>
+      </c>
+      <c r="K21">
+        <v>0.251</v>
+      </c>
+      <c r="L21">
+        <v>1.629</v>
+      </c>
+      <c r="M21">
+        <v>0.1449187</v>
+      </c>
+      <c r="N21">
+        <v>1.4840813</v>
+      </c>
+      <c r="O21">
+        <v>0.474906016</v>
+      </c>
+      <c r="P21">
+        <v>1.009175284</v>
+      </c>
+      <c r="Q21">
+        <v>1.260175284</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06928540817380754</v>
+      </c>
+      <c r="T21">
+        <v>0.7309790033985719</v>
+      </c>
+      <c r="U21">
+        <v>0.0178</v>
+      </c>
+      <c r="V21">
+        <v>0.32</v>
+      </c>
+      <c r="W21">
+        <v>0.012104</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>11.24078535068283</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.0582834331569995</v>
+      </c>
+      <c r="C22">
+        <v>37.67650338160258</v>
+      </c>
+      <c r="D22">
+        <v>45.89550338160258</v>
+      </c>
+      <c r="E22">
+        <v>2.92</v>
+      </c>
+      <c r="F22">
+        <v>8.57</v>
+      </c>
+      <c r="G22">
+        <v>0.351</v>
+      </c>
+      <c r="H22">
+        <v>37.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.88</v>
+      </c>
+      <c r="K22">
+        <v>0.251</v>
+      </c>
+      <c r="L22">
+        <v>1.629</v>
+      </c>
+      <c r="M22">
+        <v>0.152546</v>
+      </c>
+      <c r="N22">
+        <v>1.476454</v>
+      </c>
+      <c r="O22">
+        <v>0.47246528</v>
+      </c>
+      <c r="P22">
+        <v>1.00398872</v>
+      </c>
+      <c r="Q22">
+        <v>1.25498872</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06982829144624937</v>
+      </c>
+      <c r="T22">
+        <v>0.7375945501712379</v>
+      </c>
+      <c r="U22">
+        <v>0.0178</v>
+      </c>
+      <c r="V22">
+        <v>0.32</v>
+      </c>
+      <c r="W22">
+        <v>0.012104</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>10.67874608314869</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05846008569321488</v>
+      </c>
+      <c r="C23">
+        <v>37.08308184090721</v>
+      </c>
+      <c r="D23">
+        <v>45.73058184090721</v>
+      </c>
+      <c r="E23">
+        <v>3.3485</v>
+      </c>
+      <c r="F23">
+        <v>8.9985</v>
+      </c>
+      <c r="G23">
+        <v>0.351</v>
+      </c>
+      <c r="H23">
+        <v>37.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.88</v>
+      </c>
+      <c r="K23">
+        <v>0.251</v>
+      </c>
+      <c r="L23">
+        <v>1.629</v>
+      </c>
+      <c r="M23">
+        <v>0.17997</v>
+      </c>
+      <c r="N23">
+        <v>1.44903</v>
+      </c>
+      <c r="O23">
+        <v>0.4636896</v>
+      </c>
+      <c r="P23">
+        <v>0.9853404</v>
+      </c>
+      <c r="Q23">
+        <v>1.2363404</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07038491859900618</v>
+      </c>
+      <c r="T23">
+        <v>0.7443775791406801</v>
+      </c>
+      <c r="U23">
+        <v>0.02</v>
+      </c>
+      <c r="V23">
+        <v>0.32</v>
+      </c>
+      <c r="W23">
+        <v>0.0136</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>9.051508584764129</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05833753822943027</v>
+      </c>
+      <c r="C24">
+        <v>36.76886504158048</v>
+      </c>
+      <c r="D24">
+        <v>45.84486504158048</v>
+      </c>
+      <c r="E24">
+        <v>3.776999999999999</v>
+      </c>
+      <c r="F24">
+        <v>9.427</v>
+      </c>
+      <c r="G24">
+        <v>0.351</v>
+      </c>
+      <c r="H24">
+        <v>37.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.88</v>
+      </c>
+      <c r="K24">
+        <v>0.251</v>
+      </c>
+      <c r="L24">
+        <v>1.629</v>
+      </c>
+      <c r="M24">
+        <v>0.18854</v>
+      </c>
+      <c r="N24">
+        <v>1.44046</v>
+      </c>
+      <c r="O24">
+        <v>0.4609472000000001</v>
+      </c>
+      <c r="P24">
+        <v>0.9795128</v>
+      </c>
+      <c r="Q24">
+        <v>1.2305128</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07095581824285932</v>
+      </c>
+      <c r="T24">
+        <v>0.7513345319298518</v>
+      </c>
+      <c r="U24">
+        <v>0.02</v>
+      </c>
+      <c r="V24">
+        <v>0.32</v>
+      </c>
+      <c r="W24">
+        <v>0.0136</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>8.64007637636576</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05821499076564566</v>
+      </c>
+      <c r="C25">
+        <v>36.45522087310482</v>
+      </c>
+      <c r="D25">
+        <v>45.95972087310482</v>
+      </c>
+      <c r="E25">
+        <v>4.205500000000001</v>
+      </c>
+      <c r="F25">
+        <v>9.855500000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.351</v>
+      </c>
+      <c r="H25">
+        <v>37.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.88</v>
+      </c>
+      <c r="K25">
+        <v>0.251</v>
+      </c>
+      <c r="L25">
+        <v>1.629</v>
+      </c>
+      <c r="M25">
+        <v>0.19711</v>
+      </c>
+      <c r="N25">
+        <v>1.43189</v>
+      </c>
+      <c r="O25">
+        <v>0.4582048</v>
+      </c>
+      <c r="P25">
+        <v>0.9736852</v>
+      </c>
+      <c r="Q25">
+        <v>1.2246852</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07154154644889046</v>
+      </c>
+      <c r="T25">
+        <v>0.7584721847914694</v>
+      </c>
+      <c r="U25">
+        <v>0.02</v>
+      </c>
+      <c r="V25">
+        <v>0.32</v>
+      </c>
+      <c r="W25">
+        <v>0.0136</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>8.264420881741161</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05809244330186104</v>
+      </c>
+      <c r="C26">
+        <v>36.14215365015194</v>
+      </c>
+      <c r="D26">
+        <v>46.07515365015194</v>
+      </c>
+      <c r="E26">
+        <v>4.634</v>
+      </c>
+      <c r="F26">
+        <v>10.284</v>
+      </c>
+      <c r="G26">
+        <v>0.351</v>
+      </c>
+      <c r="H26">
+        <v>37.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.88</v>
+      </c>
+      <c r="K26">
+        <v>0.251</v>
+      </c>
+      <c r="L26">
+        <v>1.629</v>
+      </c>
+      <c r="M26">
+        <v>0.20568</v>
+      </c>
+      <c r="N26">
+        <v>1.42332</v>
+      </c>
+      <c r="O26">
+        <v>0.4554624</v>
+      </c>
+      <c r="P26">
+        <v>0.9678575999999999</v>
+      </c>
+      <c r="Q26">
+        <v>1.2188576</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07214268855508031</v>
+      </c>
+      <c r="T26">
+        <v>0.7657976706231295</v>
+      </c>
+      <c r="U26">
+        <v>0.02</v>
+      </c>
+      <c r="V26">
+        <v>0.32</v>
+      </c>
+      <c r="W26">
+        <v>0.0136</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>7.920070011668612</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05815689583807643</v>
+      </c>
+      <c r="C27">
+        <v>35.65287081779379</v>
+      </c>
+      <c r="D27">
+        <v>46.01437081779379</v>
+      </c>
+      <c r="E27">
+        <v>5.0625</v>
+      </c>
+      <c r="F27">
+        <v>10.7125</v>
+      </c>
+      <c r="G27">
+        <v>0.351</v>
+      </c>
+      <c r="H27">
+        <v>37.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.88</v>
+      </c>
+      <c r="K27">
+        <v>0.251</v>
+      </c>
+      <c r="L27">
+        <v>1.629</v>
+      </c>
+      <c r="M27">
+        <v>0.22603375</v>
+      </c>
+      <c r="N27">
+        <v>1.40296625</v>
+      </c>
+      <c r="O27">
+        <v>0.4489492</v>
+      </c>
+      <c r="P27">
+        <v>0.95401705</v>
+      </c>
+      <c r="Q27">
+        <v>1.20501705</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07275986111743524</v>
+      </c>
+      <c r="T27">
+        <v>0.773318502743634</v>
+      </c>
+      <c r="U27">
+        <v>0.0211</v>
+      </c>
+      <c r="V27">
+        <v>0.32</v>
+      </c>
+      <c r="W27">
+        <v>0.014348</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>7.206888351850111</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05804182837429181</v>
+      </c>
+      <c r="C28">
+        <v>35.33299942538293</v>
+      </c>
+      <c r="D28">
+        <v>46.12299942538293</v>
+      </c>
+      <c r="E28">
+        <v>5.491</v>
+      </c>
+      <c r="F28">
+        <v>11.141</v>
+      </c>
+      <c r="G28">
+        <v>0.351</v>
+      </c>
+      <c r="H28">
+        <v>37.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.88</v>
+      </c>
+      <c r="K28">
+        <v>0.251</v>
+      </c>
+      <c r="L28">
+        <v>1.629</v>
+      </c>
+      <c r="M28">
+        <v>0.2350751</v>
+      </c>
+      <c r="N28">
+        <v>1.3939249</v>
+      </c>
+      <c r="O28">
+        <v>0.446055968</v>
+      </c>
+      <c r="P28">
+        <v>0.947868932</v>
+      </c>
+      <c r="Q28">
+        <v>1.198868932</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07339371401931326</v>
+      </c>
+      <c r="T28">
+        <v>0.781042600597125</v>
+      </c>
+      <c r="U28">
+        <v>0.0211</v>
+      </c>
+      <c r="V28">
+        <v>0.32</v>
+      </c>
+      <c r="W28">
+        <v>0.014348</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>6.929700338317414</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05792676091050721</v>
+      </c>
+      <c r="C29">
+        <v>35.01364213747483</v>
+      </c>
+      <c r="D29">
+        <v>46.23214213747484</v>
+      </c>
+      <c r="E29">
+        <v>5.919500000000001</v>
+      </c>
+      <c r="F29">
+        <v>11.5695</v>
+      </c>
+      <c r="G29">
+        <v>0.351</v>
+      </c>
+      <c r="H29">
+        <v>37.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.88</v>
+      </c>
+      <c r="K29">
+        <v>0.251</v>
+      </c>
+      <c r="L29">
+        <v>1.629</v>
+      </c>
+      <c r="M29">
+        <v>0.24411645</v>
+      </c>
+      <c r="N29">
+        <v>1.38488355</v>
+      </c>
+      <c r="O29">
+        <v>0.4431627360000001</v>
+      </c>
+      <c r="P29">
+        <v>0.941720814</v>
+      </c>
+      <c r="Q29">
+        <v>1.192720814</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07404493275411946</v>
+      </c>
+      <c r="T29">
+        <v>0.7889783175698899</v>
+      </c>
+      <c r="U29">
+        <v>0.0211</v>
+      </c>
+      <c r="V29">
+        <v>0.32</v>
+      </c>
+      <c r="W29">
+        <v>0.014348</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>6.673044770231583</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.0578116934467226</v>
+      </c>
+      <c r="C30">
+        <v>34.6948026123649</v>
+      </c>
+      <c r="D30">
+        <v>46.34180261236489</v>
+      </c>
+      <c r="E30">
+        <v>6.348000000000001</v>
+      </c>
+      <c r="F30">
+        <v>11.998</v>
+      </c>
+      <c r="G30">
+        <v>0.351</v>
+      </c>
+      <c r="H30">
+        <v>37.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.88</v>
+      </c>
+      <c r="K30">
+        <v>0.251</v>
+      </c>
+      <c r="L30">
+        <v>1.629</v>
+      </c>
+      <c r="M30">
+        <v>0.2531578</v>
+      </c>
+      <c r="N30">
+        <v>1.3758422</v>
+      </c>
+      <c r="O30">
+        <v>0.440269504</v>
+      </c>
+      <c r="P30">
+        <v>0.9355726959999999</v>
+      </c>
+      <c r="Q30">
+        <v>1.186572696</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07471424089822583</v>
+      </c>
+      <c r="T30">
+        <v>0.7971344711252315</v>
+      </c>
+      <c r="U30">
+        <v>0.0211</v>
+      </c>
+      <c r="V30">
+        <v>0.32</v>
+      </c>
+      <c r="W30">
+        <v>0.014348</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>6.434721742723312</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05799242598293797</v>
+      </c>
+      <c r="C31">
+        <v>34.09429492636751</v>
+      </c>
+      <c r="D31">
+        <v>46.16979492636751</v>
+      </c>
+      <c r="E31">
+        <v>6.776499999999999</v>
+      </c>
+      <c r="F31">
+        <v>12.4265</v>
+      </c>
+      <c r="G31">
+        <v>0.351</v>
+      </c>
+      <c r="H31">
+        <v>37.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.88</v>
+      </c>
+      <c r="K31">
+        <v>0.251</v>
+      </c>
+      <c r="L31">
+        <v>1.629</v>
+      </c>
+      <c r="M31">
+        <v>0.2808388999999999</v>
+      </c>
+      <c r="N31">
+        <v>1.3481611</v>
+      </c>
+      <c r="O31">
+        <v>0.431411552</v>
+      </c>
+      <c r="P31">
+        <v>0.916749548</v>
+      </c>
+      <c r="Q31">
+        <v>1.167749548</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07540240279287039</v>
+      </c>
+      <c r="T31">
+        <v>0.8055203754849488</v>
+      </c>
+      <c r="U31">
+        <v>0.0226</v>
+      </c>
+      <c r="V31">
+        <v>0.32</v>
+      </c>
+      <c r="W31">
+        <v>0.015368</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>5.800478494966332</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05788755851915336</v>
+      </c>
+      <c r="C32">
+        <v>33.76544408440195</v>
+      </c>
+      <c r="D32">
+        <v>46.26944408440195</v>
+      </c>
+      <c r="E32">
+        <v>7.205</v>
+      </c>
+      <c r="F32">
+        <v>12.855</v>
+      </c>
+      <c r="G32">
+        <v>0.351</v>
+      </c>
+      <c r="H32">
+        <v>37.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.88</v>
+      </c>
+      <c r="K32">
+        <v>0.251</v>
+      </c>
+      <c r="L32">
+        <v>1.629</v>
+      </c>
+      <c r="M32">
+        <v>0.290523</v>
+      </c>
+      <c r="N32">
+        <v>1.338477</v>
+      </c>
+      <c r="O32">
+        <v>0.4283126400000001</v>
+      </c>
+      <c r="P32">
+        <v>0.91016436</v>
+      </c>
+      <c r="Q32">
+        <v>1.16116436</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07611022645593338</v>
+      </c>
+      <c r="T32">
+        <v>0.8141458771120867</v>
+      </c>
+      <c r="U32">
+        <v>0.0226</v>
+      </c>
+      <c r="V32">
+        <v>0.32</v>
+      </c>
+      <c r="W32">
+        <v>0.015368</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>5.607129211800788</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05778269105536873</v>
+      </c>
+      <c r="C33">
+        <v>33.43702432224012</v>
+      </c>
+      <c r="D33">
+        <v>46.36952432224012</v>
+      </c>
+      <c r="E33">
+        <v>7.6335</v>
+      </c>
+      <c r="F33">
+        <v>13.2835</v>
+      </c>
+      <c r="G33">
+        <v>0.351</v>
+      </c>
+      <c r="H33">
+        <v>37.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.88</v>
+      </c>
+      <c r="K33">
+        <v>0.251</v>
+      </c>
+      <c r="L33">
+        <v>1.629</v>
+      </c>
+      <c r="M33">
+        <v>0.3002071</v>
+      </c>
+      <c r="N33">
+        <v>1.3287929</v>
+      </c>
+      <c r="O33">
+        <v>0.425213728</v>
+      </c>
+      <c r="P33">
+        <v>0.903579172</v>
+      </c>
+      <c r="Q33">
+        <v>1.154579172</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07683856674691122</v>
+      </c>
+      <c r="T33">
+        <v>0.8230213932791417</v>
+      </c>
+      <c r="U33">
+        <v>0.0226</v>
+      </c>
+      <c r="V33">
+        <v>0.32</v>
+      </c>
+      <c r="W33">
+        <v>0.015368</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>5.426254075936246</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05767782359158413</v>
+      </c>
+      <c r="C34">
+        <v>33.10903844320645</v>
+      </c>
+      <c r="D34">
+        <v>46.47003844320646</v>
+      </c>
+      <c r="E34">
+        <v>8.062000000000001</v>
+      </c>
+      <c r="F34">
+        <v>13.712</v>
+      </c>
+      <c r="G34">
+        <v>0.351</v>
+      </c>
+      <c r="H34">
+        <v>37.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.88</v>
+      </c>
+      <c r="K34">
+        <v>0.251</v>
+      </c>
+      <c r="L34">
+        <v>1.629</v>
+      </c>
+      <c r="M34">
+        <v>0.3098912</v>
+      </c>
+      <c r="N34">
+        <v>1.3191088</v>
+      </c>
+      <c r="O34">
+        <v>0.422114816</v>
+      </c>
+      <c r="P34">
+        <v>0.896993984</v>
+      </c>
+      <c r="Q34">
+        <v>1.147993984</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07758832881115314</v>
+      </c>
+      <c r="T34">
+        <v>0.8321579540393453</v>
+      </c>
+      <c r="U34">
+        <v>0.0226</v>
+      </c>
+      <c r="V34">
+        <v>0.32</v>
+      </c>
+      <c r="W34">
+        <v>0.015368</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>5.256683636063237</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05757295612779953</v>
+      </c>
+      <c r="C35">
+        <v>32.78148927498502</v>
+      </c>
+      <c r="D35">
+        <v>46.57098927498502</v>
+      </c>
+      <c r="E35">
+        <v>8.490500000000001</v>
+      </c>
+      <c r="F35">
+        <v>14.1405</v>
+      </c>
+      <c r="G35">
+        <v>0.351</v>
+      </c>
+      <c r="H35">
+        <v>37.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.88</v>
+      </c>
+      <c r="K35">
+        <v>0.251</v>
+      </c>
+      <c r="L35">
+        <v>1.629</v>
+      </c>
+      <c r="M35">
+        <v>0.3195753</v>
+      </c>
+      <c r="N35">
+        <v>1.3094247</v>
+      </c>
+      <c r="O35">
+        <v>0.4190159040000001</v>
+      </c>
+      <c r="P35">
+        <v>0.890408796</v>
+      </c>
+      <c r="Q35">
+        <v>1.141408796</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07836047183253661</v>
+      </c>
+      <c r="T35">
+        <v>0.84156724795657</v>
+      </c>
+      <c r="U35">
+        <v>0.0226</v>
+      </c>
+      <c r="V35">
+        <v>0.32</v>
+      </c>
+      <c r="W35">
+        <v>0.015368</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>5.09739019254617</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0574680886640149</v>
+      </c>
+      <c r="C36">
+        <v>32.45437966988474</v>
+      </c>
+      <c r="D36">
+        <v>46.67237966988474</v>
+      </c>
+      <c r="E36">
+        <v>8.919</v>
+      </c>
+      <c r="F36">
+        <v>14.569</v>
+      </c>
+      <c r="G36">
+        <v>0.351</v>
+      </c>
+      <c r="H36">
+        <v>37.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.88</v>
+      </c>
+      <c r="K36">
+        <v>0.251</v>
+      </c>
+      <c r="L36">
+        <v>1.629</v>
+      </c>
+      <c r="M36">
+        <v>0.3292594</v>
+      </c>
+      <c r="N36">
+        <v>1.2997406</v>
+      </c>
+      <c r="O36">
+        <v>0.415916992</v>
+      </c>
+      <c r="P36">
+        <v>0.8838236079999999</v>
+      </c>
+      <c r="Q36">
+        <v>1.134823608</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07915601312729531</v>
+      </c>
+      <c r="T36">
+        <v>0.8512616719924984</v>
+      </c>
+      <c r="U36">
+        <v>0.0226</v>
+      </c>
+      <c r="V36">
+        <v>0.32</v>
+      </c>
+      <c r="W36">
+        <v>0.015368</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>4.94746695158893</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.0573632212002303</v>
+      </c>
+      <c r="C37">
+        <v>32.1277125051078</v>
+      </c>
+      <c r="D37">
+        <v>46.7742125051078</v>
+      </c>
+      <c r="E37">
+        <v>9.347500000000002</v>
+      </c>
+      <c r="F37">
+        <v>14.9975</v>
+      </c>
+      <c r="G37">
+        <v>0.351</v>
+      </c>
+      <c r="H37">
+        <v>37.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.88</v>
+      </c>
+      <c r="K37">
+        <v>0.251</v>
+      </c>
+      <c r="L37">
+        <v>1.629</v>
+      </c>
+      <c r="M37">
+        <v>0.3389435</v>
+      </c>
+      <c r="N37">
+        <v>1.2900565</v>
+      </c>
+      <c r="O37">
+        <v>0.41281808</v>
+      </c>
+      <c r="P37">
+        <v>0.87723842</v>
+      </c>
+      <c r="Q37">
+        <v>1.12823842</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07997603261573892</v>
+      </c>
+      <c r="T37">
+        <v>0.861254385998763</v>
+      </c>
+      <c r="U37">
+        <v>0.0226</v>
+      </c>
+      <c r="V37">
+        <v>0.32</v>
+      </c>
+      <c r="W37">
+        <v>0.015368</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>4.806110752972103</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05725835373644568</v>
+      </c>
+      <c r="C38">
+        <v>31.8014906830221</v>
+      </c>
+      <c r="D38">
+        <v>46.87649068302211</v>
+      </c>
+      <c r="E38">
+        <v>9.776</v>
+      </c>
+      <c r="F38">
+        <v>15.426</v>
+      </c>
+      <c r="G38">
+        <v>0.351</v>
+      </c>
+      <c r="H38">
+        <v>37.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.88</v>
+      </c>
+      <c r="K38">
+        <v>0.251</v>
+      </c>
+      <c r="L38">
+        <v>1.629</v>
+      </c>
+      <c r="M38">
+        <v>0.3486276</v>
+      </c>
+      <c r="N38">
+        <v>1.2803724</v>
+      </c>
+      <c r="O38">
+        <v>0.409719168</v>
+      </c>
+      <c r="P38">
+        <v>0.870653232</v>
+      </c>
+      <c r="Q38">
+        <v>1.121653232</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08082167771319637</v>
+      </c>
+      <c r="T38">
+        <v>0.8715593723177233</v>
+      </c>
+      <c r="U38">
+        <v>0.0226</v>
+      </c>
+      <c r="V38">
+        <v>0.32</v>
+      </c>
+      <c r="W38">
+        <v>0.015368</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>4.672607676500656</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05715348627266106</v>
+      </c>
+      <c r="C39">
+        <v>31.4757171314368</v>
+      </c>
+      <c r="D39">
+        <v>46.9792171314368</v>
+      </c>
+      <c r="E39">
+        <v>10.2045</v>
+      </c>
+      <c r="F39">
+        <v>15.8545</v>
+      </c>
+      <c r="G39">
+        <v>0.351</v>
+      </c>
+      <c r="H39">
+        <v>37.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.88</v>
+      </c>
+      <c r="K39">
+        <v>0.251</v>
+      </c>
+      <c r="L39">
+        <v>1.629</v>
+      </c>
+      <c r="M39">
+        <v>0.3583117</v>
+      </c>
+      <c r="N39">
+        <v>1.2706883</v>
+      </c>
+      <c r="O39">
+        <v>0.406620256</v>
+      </c>
+      <c r="P39">
+        <v>0.8640680439999999</v>
+      </c>
+      <c r="Q39">
+        <v>1.115068044</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08169416868676359</v>
+      </c>
+      <c r="T39">
+        <v>0.8821915010595079</v>
+      </c>
+      <c r="U39">
+        <v>0.0226</v>
+      </c>
+      <c r="V39">
+        <v>0.32</v>
+      </c>
+      <c r="W39">
+        <v>0.015368</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>4.546320982541179</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.08098049432921289</v>
+      </c>
+      <c r="C40">
+        <v>15.43105550258139</v>
+      </c>
+      <c r="D40">
+        <v>31.36305550258139</v>
+      </c>
+      <c r="E40">
+        <v>10.633</v>
+      </c>
+      <c r="F40">
+        <v>16.283</v>
+      </c>
+      <c r="G40">
+        <v>0.351</v>
+      </c>
+      <c r="H40">
+        <v>37.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.88</v>
+      </c>
+      <c r="K40">
+        <v>0.251</v>
+      </c>
+      <c r="L40">
+        <v>1.629</v>
+      </c>
+      <c r="M40">
+        <v>1.774847</v>
+      </c>
+      <c r="N40">
+        <v>-0.1458470000000001</v>
+      </c>
+      <c r="O40">
+        <v>-0.04667104000000002</v>
+      </c>
+      <c r="P40">
+        <v>-0.09917596000000004</v>
+      </c>
+      <c r="Q40">
+        <v>0.15182404</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08342858365667079</v>
+      </c>
+      <c r="T40">
+        <v>0.9033269899188788</v>
+      </c>
+      <c r="U40">
+        <v>0.109</v>
+      </c>
+      <c r="V40">
+        <v>0.2937041897132541</v>
+      </c>
+      <c r="W40">
+        <v>0.0769862433212553</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.9178255928539192</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.08197749432921292</v>
+      </c>
+      <c r="C41">
+        <v>14.57231273451851</v>
+      </c>
+      <c r="D41">
+        <v>30.93281273451851</v>
+      </c>
+      <c r="E41">
+        <v>11.0615</v>
+      </c>
+      <c r="F41">
+        <v>16.7115</v>
+      </c>
+      <c r="G41">
+        <v>0.351</v>
+      </c>
+      <c r="H41">
+        <v>37.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.88</v>
+      </c>
+      <c r="K41">
+        <v>0.251</v>
+      </c>
+      <c r="L41">
+        <v>1.629</v>
+      </c>
+      <c r="M41">
+        <v>1.8215535</v>
+      </c>
+      <c r="N41">
+        <v>-0.1925535</v>
+      </c>
+      <c r="O41">
+        <v>-0.06161712000000002</v>
+      </c>
+      <c r="P41">
+        <v>-0.13093638</v>
+      </c>
+      <c r="Q41">
+        <v>0.12006362</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08464380633956704</v>
+      </c>
+      <c r="T41">
+        <v>0.918135629097877</v>
+      </c>
+      <c r="U41">
+        <v>0.109</v>
+      </c>
+      <c r="V41">
+        <v>0.2861733130539399</v>
+      </c>
+      <c r="W41">
+        <v>0.07780710887712056</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.8942916032935623</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.0829744943292129</v>
+      </c>
+      <c r="C42">
+        <v>13.72521448586944</v>
+      </c>
+      <c r="D42">
+        <v>30.51421448586945</v>
+      </c>
+      <c r="E42">
+        <v>11.49</v>
+      </c>
+      <c r="F42">
+        <v>17.14</v>
+      </c>
+      <c r="G42">
+        <v>0.351</v>
+      </c>
+      <c r="H42">
+        <v>37.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.88</v>
+      </c>
+      <c r="K42">
+        <v>0.251</v>
+      </c>
+      <c r="L42">
+        <v>1.629</v>
+      </c>
+      <c r="M42">
+        <v>1.86826</v>
+      </c>
+      <c r="N42">
+        <v>-0.23926</v>
+      </c>
+      <c r="O42">
+        <v>-0.07656320000000001</v>
+      </c>
+      <c r="P42">
+        <v>-0.1626968</v>
+      </c>
+      <c r="Q42">
+        <v>0.08830319999999997</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08589953644522649</v>
+      </c>
+      <c r="T42">
+        <v>0.9334378895828416</v>
+      </c>
+      <c r="U42">
+        <v>0.109</v>
+      </c>
+      <c r="V42">
+        <v>0.2790189802275915</v>
+      </c>
+      <c r="W42">
+        <v>0.07858693115519252</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.8719343132112233</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.0839714943292129</v>
+      </c>
+      <c r="C43">
+        <v>12.88929433021696</v>
+      </c>
+      <c r="D43">
+        <v>30.10679433021696</v>
+      </c>
+      <c r="E43">
+        <v>11.9185</v>
+      </c>
+      <c r="F43">
+        <v>17.5685</v>
+      </c>
+      <c r="G43">
+        <v>0.351</v>
+      </c>
+      <c r="H43">
+        <v>37.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.88</v>
+      </c>
+      <c r="K43">
+        <v>0.251</v>
+      </c>
+      <c r="L43">
+        <v>1.629</v>
+      </c>
+      <c r="M43">
+        <v>1.9149665</v>
+      </c>
+      <c r="N43">
+        <v>-0.2859665</v>
+      </c>
+      <c r="O43">
+        <v>-0.09150928000000001</v>
+      </c>
+      <c r="P43">
+        <v>-0.19445722</v>
+      </c>
+      <c r="Q43">
+        <v>0.05654278000000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08719783367311168</v>
+      </c>
+      <c r="T43">
+        <v>0.9492588707622117</v>
+      </c>
+      <c r="U43">
+        <v>0.109</v>
+      </c>
+      <c r="V43">
+        <v>0.2722136392464307</v>
+      </c>
+      <c r="W43">
+        <v>0.07932871332213905</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.8506676226450959</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.0849684943292129</v>
+      </c>
+      <c r="C44">
+        <v>12.0641104234825</v>
+      </c>
+      <c r="D44">
+        <v>29.7101104234825</v>
+      </c>
+      <c r="E44">
+        <v>12.347</v>
+      </c>
+      <c r="F44">
+        <v>17.997</v>
+      </c>
+      <c r="G44">
+        <v>0.351</v>
+      </c>
+      <c r="H44">
+        <v>37.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.88</v>
+      </c>
+      <c r="K44">
+        <v>0.251</v>
+      </c>
+      <c r="L44">
+        <v>1.629</v>
+      </c>
+      <c r="M44">
+        <v>1.961673</v>
+      </c>
+      <c r="N44">
+        <v>-0.332673</v>
+      </c>
+      <c r="O44">
+        <v>-0.10645536</v>
+      </c>
+      <c r="P44">
+        <v>-0.22621764</v>
+      </c>
+      <c r="Q44">
+        <v>0.02478236</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08854089977092394</v>
+      </c>
+      <c r="T44">
+        <v>0.9656254030167325</v>
+      </c>
+      <c r="U44">
+        <v>0.109</v>
+      </c>
+      <c r="V44">
+        <v>0.2657323621215157</v>
+      </c>
+      <c r="W44">
+        <v>0.08003517252875478</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.8304136316297365</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.0859654943292129</v>
+      </c>
+      <c r="C45">
+        <v>11.2492439055153</v>
+      </c>
+      <c r="D45">
+        <v>29.3237439055153</v>
+      </c>
+      <c r="E45">
+        <v>12.7755</v>
+      </c>
+      <c r="F45">
+        <v>18.4255</v>
+      </c>
+      <c r="G45">
+        <v>0.351</v>
+      </c>
+      <c r="H45">
+        <v>37.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.88</v>
+      </c>
+      <c r="K45">
+        <v>0.251</v>
+      </c>
+      <c r="L45">
+        <v>1.629</v>
+      </c>
+      <c r="M45">
+        <v>2.0083795</v>
+      </c>
+      <c r="N45">
+        <v>-0.3793794999999998</v>
+      </c>
+      <c r="O45">
+        <v>-0.1214014399999999</v>
+      </c>
+      <c r="P45">
+        <v>-0.2579780599999998</v>
+      </c>
+      <c r="Q45">
+        <v>-0.006978059999999842</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08993109099497523</v>
+      </c>
+      <c r="T45">
+        <v>0.9825661995608856</v>
+      </c>
+      <c r="U45">
+        <v>0.109</v>
+      </c>
+      <c r="V45">
+        <v>0.2595525397465968</v>
+      </c>
+      <c r="W45">
+        <v>0.08070877316762096</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.8111016867081148</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1019754048117047</v>
+      </c>
+      <c r="C46">
+        <v>5.754993009766093</v>
+      </c>
+      <c r="D46">
+        <v>24.25799300976609</v>
+      </c>
+      <c r="E46">
+        <v>13.204</v>
+      </c>
+      <c r="F46">
+        <v>18.854</v>
+      </c>
+      <c r="G46">
+        <v>0.351</v>
+      </c>
+      <c r="H46">
+        <v>37.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.88</v>
+      </c>
+      <c r="K46">
+        <v>0.251</v>
+      </c>
+      <c r="L46">
+        <v>1.629</v>
+      </c>
+      <c r="M46">
+        <v>2.6433308</v>
+      </c>
+      <c r="N46">
+        <v>-1.0143308</v>
+      </c>
+      <c r="O46">
+        <v>-0.324585856</v>
+      </c>
+      <c r="P46">
+        <v>-0.6897449439999999</v>
+      </c>
+      <c r="Q46">
+        <v>-0.4387449439999999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09366541491004936</v>
+      </c>
+      <c r="T46">
+        <v>1.02807247278485</v>
+      </c>
+      <c r="U46">
+        <v>0.1402</v>
+      </c>
+      <c r="V46">
+        <v>0.1972057375490045</v>
+      </c>
+      <c r="W46">
+        <v>0.1125517555956296</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.6162679298406391</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1032844048117047</v>
+      </c>
+      <c r="C47">
+        <v>4.988631500578457</v>
+      </c>
+      <c r="D47">
+        <v>23.92013150057846</v>
+      </c>
+      <c r="E47">
+        <v>13.6325</v>
+      </c>
+      <c r="F47">
+        <v>19.2825</v>
+      </c>
+      <c r="G47">
+        <v>0.351</v>
+      </c>
+      <c r="H47">
+        <v>37.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.88</v>
+      </c>
+      <c r="K47">
+        <v>0.251</v>
+      </c>
+      <c r="L47">
+        <v>1.629</v>
+      </c>
+      <c r="M47">
+        <v>2.7034065</v>
+      </c>
+      <c r="N47">
+        <v>-1.0744065</v>
+      </c>
+      <c r="O47">
+        <v>-0.3438100800000001</v>
+      </c>
+      <c r="P47">
+        <v>-0.7305964200000001</v>
+      </c>
+      <c r="Q47">
+        <v>-0.4795964200000001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09519933154477754</v>
+      </c>
+      <c r="T47">
+        <v>1.046764699562757</v>
+      </c>
+      <c r="U47">
+        <v>0.1402</v>
+      </c>
+      <c r="V47">
+        <v>0.1928233878256932</v>
+      </c>
+      <c r="W47">
+        <v>0.1131661610268378</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.6025730869552913</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1045934048117046</v>
+      </c>
+      <c r="C48">
+        <v>4.231552075841488</v>
+      </c>
+      <c r="D48">
+        <v>23.59155207584149</v>
+      </c>
+      <c r="E48">
+        <v>14.061</v>
+      </c>
+      <c r="F48">
+        <v>19.711</v>
+      </c>
+      <c r="G48">
+        <v>0.351</v>
+      </c>
+      <c r="H48">
+        <v>37.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.88</v>
+      </c>
+      <c r="K48">
+        <v>0.251</v>
+      </c>
+      <c r="L48">
+        <v>1.629</v>
+      </c>
+      <c r="M48">
+        <v>2.7634822</v>
+      </c>
+      <c r="N48">
+        <v>-1.1344822</v>
+      </c>
+      <c r="O48">
+        <v>-0.3630343040000001</v>
+      </c>
+      <c r="P48">
+        <v>-0.7714478960000002</v>
+      </c>
+      <c r="Q48">
+        <v>-0.5204478960000002</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09679005990671785</v>
+      </c>
+      <c r="T48">
+        <v>1.066149231036141</v>
+      </c>
+      <c r="U48">
+        <v>0.1402</v>
+      </c>
+      <c r="V48">
+        <v>0.1886315750468738</v>
+      </c>
+      <c r="W48">
+        <v>0.1137538531784283</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.5894736720214806</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1059024048117047</v>
+      </c>
+      <c r="C49">
+        <v>3.483377408037203</v>
+      </c>
+      <c r="D49">
+        <v>23.27187740803721</v>
+      </c>
+      <c r="E49">
+        <v>14.4895</v>
+      </c>
+      <c r="F49">
+        <v>20.1395</v>
+      </c>
+      <c r="G49">
+        <v>0.351</v>
+      </c>
+      <c r="H49">
+        <v>37.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.88</v>
+      </c>
+      <c r="K49">
+        <v>0.251</v>
+      </c>
+      <c r="L49">
+        <v>1.629</v>
+      </c>
+      <c r="M49">
+        <v>2.8235579</v>
+      </c>
+      <c r="N49">
+        <v>-1.1945579</v>
+      </c>
+      <c r="O49">
+        <v>-0.382258528</v>
+      </c>
+      <c r="P49">
+        <v>-0.812299372</v>
+      </c>
+      <c r="Q49">
+        <v>-0.561299372</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09844081575401442</v>
+      </c>
+      <c r="T49">
+        <v>1.086265254263238</v>
+      </c>
+      <c r="U49">
+        <v>0.1402</v>
+      </c>
+      <c r="V49">
+        <v>0.1846181372799191</v>
+      </c>
+      <c r="W49">
+        <v>0.1143165371533553</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.5769316789997472</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1072114048117047</v>
+      </c>
+      <c r="C50">
+        <v>2.743750347959736</v>
+      </c>
+      <c r="D50">
+        <v>22.96075034795974</v>
+      </c>
+      <c r="E50">
+        <v>14.918</v>
+      </c>
+      <c r="F50">
+        <v>20.568</v>
+      </c>
+      <c r="G50">
+        <v>0.351</v>
+      </c>
+      <c r="H50">
+        <v>37.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.88</v>
+      </c>
+      <c r="K50">
+        <v>0.251</v>
+      </c>
+      <c r="L50">
+        <v>1.629</v>
+      </c>
+      <c r="M50">
+        <v>2.8836336</v>
+      </c>
+      <c r="N50">
+        <v>-1.2546336</v>
+      </c>
+      <c r="O50">
+        <v>-0.401482752</v>
+      </c>
+      <c r="P50">
+        <v>-0.8531508480000001</v>
+      </c>
+      <c r="Q50">
+        <v>-0.6021508480000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1001550622108224</v>
+      </c>
+      <c r="T50">
+        <v>1.107154970691377</v>
+      </c>
+      <c r="U50">
+        <v>0.1402</v>
+      </c>
+      <c r="V50">
+        <v>0.1807719260865874</v>
+      </c>
+      <c r="W50">
+        <v>0.1148557759626604</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.5649122690205857</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1085204048117047</v>
+      </c>
+      <c r="C51">
+        <v>2.012332593667992</v>
+      </c>
+      <c r="D51">
+        <v>22.65783259366799</v>
+      </c>
+      <c r="E51">
+        <v>15.3465</v>
+      </c>
+      <c r="F51">
+        <v>20.9965</v>
+      </c>
+      <c r="G51">
+        <v>0.351</v>
+      </c>
+      <c r="H51">
+        <v>37.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.88</v>
+      </c>
+      <c r="K51">
+        <v>0.251</v>
+      </c>
+      <c r="L51">
+        <v>1.629</v>
+      </c>
+      <c r="M51">
+        <v>2.9437093</v>
+      </c>
+      <c r="N51">
+        <v>-1.3147093</v>
+      </c>
+      <c r="O51">
+        <v>-0.420706976</v>
+      </c>
+      <c r="P51">
+        <v>-0.8940023240000001</v>
+      </c>
+      <c r="Q51">
+        <v>-0.6430023240000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1019365340188777</v>
+      </c>
+      <c r="T51">
+        <v>1.128863891685326</v>
+      </c>
+      <c r="U51">
+        <v>0.1402</v>
+      </c>
+      <c r="V51">
+        <v>0.1770827031052285</v>
+      </c>
+      <c r="W51">
+        <v>0.115373005024647</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.553383447203839</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1098294048117046</v>
+      </c>
+      <c r="C52">
+        <v>1.288803463428302</v>
+      </c>
+      <c r="D52">
+        <v>22.3628034634283</v>
+      </c>
+      <c r="E52">
+        <v>15.775</v>
+      </c>
+      <c r="F52">
+        <v>21.425</v>
+      </c>
+      <c r="G52">
+        <v>0.351</v>
+      </c>
+      <c r="H52">
+        <v>37.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.88</v>
+      </c>
+      <c r="K52">
+        <v>0.251</v>
+      </c>
+      <c r="L52">
+        <v>1.629</v>
+      </c>
+      <c r="M52">
+        <v>3.003785</v>
+      </c>
+      <c r="N52">
+        <v>-1.374785</v>
+      </c>
+      <c r="O52">
+        <v>-0.4399311999999999</v>
+      </c>
+      <c r="P52">
+        <v>-0.9348537999999997</v>
+      </c>
+      <c r="Q52">
+        <v>-0.6838537999999997</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1037892646992553</v>
+      </c>
+      <c r="T52">
+        <v>1.151441169519033</v>
+      </c>
+      <c r="U52">
+        <v>0.1402</v>
+      </c>
+      <c r="V52">
+        <v>0.1735410490431239</v>
+      </c>
+      <c r="W52">
+        <v>0.115869544924154</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.5423157782597623</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1111384048117047</v>
+      </c>
+      <c r="C53">
+        <v>0.5728587632903519</v>
+      </c>
+      <c r="D53">
+        <v>22.07535876329035</v>
+      </c>
+      <c r="E53">
+        <v>16.2035</v>
+      </c>
+      <c r="F53">
+        <v>21.8535</v>
+      </c>
+      <c r="G53">
+        <v>0.351</v>
+      </c>
+      <c r="H53">
+        <v>37.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.88</v>
+      </c>
+      <c r="K53">
+        <v>0.251</v>
+      </c>
+      <c r="L53">
+        <v>1.629</v>
+      </c>
+      <c r="M53">
+        <v>3.0638607</v>
+      </c>
+      <c r="N53">
+        <v>-1.4348607</v>
+      </c>
+      <c r="O53">
+        <v>-0.4591554239999999</v>
+      </c>
+      <c r="P53">
+        <v>-0.9757052759999998</v>
+      </c>
+      <c r="Q53">
+        <v>-0.7247052759999998</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1057176170400564</v>
+      </c>
+      <c r="T53">
+        <v>1.174939968896972</v>
+      </c>
+      <c r="U53">
+        <v>0.1402</v>
+      </c>
+      <c r="V53">
+        <v>0.1701382833756117</v>
+      </c>
+      <c r="W53">
+        <v>0.1163466126707392</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.5316821355487866</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1124474048117046</v>
+      </c>
+      <c r="C54">
+        <v>-0.135790259110145</v>
+      </c>
+      <c r="D54">
+        <v>21.79520974088986</v>
+      </c>
+      <c r="E54">
+        <v>16.632</v>
+      </c>
+      <c r="F54">
+        <v>22.282</v>
+      </c>
+      <c r="G54">
+        <v>0.351</v>
+      </c>
+      <c r="H54">
+        <v>37.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.88</v>
+      </c>
+      <c r="K54">
+        <v>0.251</v>
+      </c>
+      <c r="L54">
+        <v>1.629</v>
+      </c>
+      <c r="M54">
+        <v>3.1239364</v>
+      </c>
+      <c r="N54">
+        <v>-1.4949364</v>
+      </c>
+      <c r="O54">
+        <v>-0.4783796479999999</v>
+      </c>
+      <c r="P54">
+        <v>-1.016556752</v>
+      </c>
+      <c r="Q54">
+        <v>-0.7655567519999998</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1077263173950576</v>
+      </c>
+      <c r="T54">
+        <v>1.199417884915659</v>
+      </c>
+      <c r="U54">
+        <v>0.1402</v>
+      </c>
+      <c r="V54">
+        <v>0.1668663933106961</v>
+      </c>
+      <c r="W54">
+        <v>0.1168053316578404</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.5214574790959252</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1137564048117047</v>
+      </c>
+      <c r="C55">
+        <v>-0.8374178820860081</v>
+      </c>
+      <c r="D55">
+        <v>21.522082117914</v>
+      </c>
+      <c r="E55">
+        <v>17.0605</v>
+      </c>
+      <c r="F55">
+        <v>22.7105</v>
+      </c>
+      <c r="G55">
+        <v>0.351</v>
+      </c>
+      <c r="H55">
+        <v>37.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.88</v>
+      </c>
+      <c r="K55">
+        <v>0.251</v>
+      </c>
+      <c r="L55">
+        <v>1.629</v>
+      </c>
+      <c r="M55">
+        <v>3.1840121</v>
+      </c>
+      <c r="N55">
+        <v>-1.5550121</v>
+      </c>
+      <c r="O55">
+        <v>-0.4976038720000001</v>
+      </c>
+      <c r="P55">
+        <v>-1.057408228</v>
+      </c>
+      <c r="Q55">
+        <v>-0.8064082280000003</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1098204943609099</v>
+      </c>
+      <c r="T55">
+        <v>1.22493741438195</v>
+      </c>
+      <c r="U55">
+        <v>0.1402</v>
+      </c>
+      <c r="V55">
+        <v>0.1637179707953999</v>
+      </c>
+      <c r="W55">
+        <v>0.1172467404944849</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.5116186587356247</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1150654048117047</v>
+      </c>
+      <c r="C56">
+        <v>-1.532284805585284</v>
+      </c>
+      <c r="D56">
+        <v>21.25571519441472</v>
+      </c>
+      <c r="E56">
+        <v>17.489</v>
+      </c>
+      <c r="F56">
+        <v>23.139</v>
+      </c>
+      <c r="G56">
+        <v>0.351</v>
+      </c>
+      <c r="H56">
+        <v>37.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.88</v>
+      </c>
+      <c r="K56">
+        <v>0.251</v>
+      </c>
+      <c r="L56">
+        <v>1.629</v>
+      </c>
+      <c r="M56">
+        <v>3.2440878</v>
+      </c>
+      <c r="N56">
+        <v>-1.6150878</v>
+      </c>
+      <c r="O56">
+        <v>-0.5168280960000001</v>
+      </c>
+      <c r="P56">
+        <v>-1.098259704</v>
+      </c>
+      <c r="Q56">
+        <v>-0.8472597040000002</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1120057224991905</v>
+      </c>
+      <c r="T56">
+        <v>1.251566488607644</v>
+      </c>
+      <c r="U56">
+        <v>0.1402</v>
+      </c>
+      <c r="V56">
+        <v>0.160686156521411</v>
+      </c>
+      <c r="W56">
+        <v>0.1176718008556982</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.5021442391294094</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1413623842815647</v>
+      </c>
+      <c r="C57">
+        <v>-6.193338300098738</v>
+      </c>
+      <c r="D57">
+        <v>17.02316169990127</v>
+      </c>
+      <c r="E57">
+        <v>17.9175</v>
+      </c>
+      <c r="F57">
+        <v>23.5675</v>
+      </c>
+      <c r="G57">
+        <v>0.351</v>
+      </c>
+      <c r="H57">
+        <v>37.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.88</v>
+      </c>
+      <c r="K57">
+        <v>0.251</v>
+      </c>
+      <c r="L57">
+        <v>1.629</v>
+      </c>
+      <c r="M57">
+        <v>4.32934975</v>
+      </c>
+      <c r="N57">
+        <v>-2.70034975</v>
+      </c>
+      <c r="O57">
+        <v>-0.8641119200000001</v>
+      </c>
+      <c r="P57">
+        <v>-1.83623783</v>
+      </c>
+      <c r="Q57">
+        <v>-1.585237830000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1166502484877504</v>
+      </c>
+      <c r="T57">
+        <v>1.308164436037444</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.1204060725285593</v>
+      </c>
+      <c r="W57">
+        <v>0.1615814044765037</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.3762689766517477</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1431063842815647</v>
+      </c>
+      <c r="C58">
+        <v>-6.843714066072323</v>
+      </c>
+      <c r="D58">
+        <v>16.80128593392768</v>
+      </c>
+      <c r="E58">
+        <v>18.346</v>
+      </c>
+      <c r="F58">
+        <v>23.996</v>
+      </c>
+      <c r="G58">
+        <v>0.351</v>
+      </c>
+      <c r="H58">
+        <v>37.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.88</v>
+      </c>
+      <c r="K58">
+        <v>0.251</v>
+      </c>
+      <c r="L58">
+        <v>1.629</v>
+      </c>
+      <c r="M58">
+        <v>4.4080652</v>
+      </c>
+      <c r="N58">
+        <v>-2.7790652</v>
+      </c>
+      <c r="O58">
+        <v>-0.8893008640000001</v>
+      </c>
+      <c r="P58">
+        <v>-1.889764336</v>
+      </c>
+      <c r="Q58">
+        <v>-1.638764336</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.119090026862472</v>
+      </c>
+      <c r="T58">
+        <v>1.337895445947386</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.1182559640905493</v>
+      </c>
+      <c r="W58">
+        <v>0.1619763793965661</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.3695498877829665</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1448503842815647</v>
+      </c>
+      <c r="C59">
+        <v>-7.488380496171889</v>
+      </c>
+      <c r="D59">
+        <v>16.58511950382811</v>
+      </c>
+      <c r="E59">
+        <v>18.7745</v>
+      </c>
+      <c r="F59">
+        <v>24.4245</v>
+      </c>
+      <c r="G59">
+        <v>0.351</v>
+      </c>
+      <c r="H59">
+        <v>37.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.88</v>
+      </c>
+      <c r="K59">
+        <v>0.251</v>
+      </c>
+      <c r="L59">
+        <v>1.629</v>
+      </c>
+      <c r="M59">
+        <v>4.48678065</v>
+      </c>
+      <c r="N59">
+        <v>-2.85778065</v>
+      </c>
+      <c r="O59">
+        <v>-0.914489808</v>
+      </c>
+      <c r="P59">
+        <v>-1.943290842</v>
+      </c>
+      <c r="Q59">
+        <v>-1.692290842</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1216432833011342</v>
+      </c>
+      <c r="T59">
+        <v>1.369009293527558</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.116181298053873</v>
+      </c>
+      <c r="W59">
+        <v>0.1623574955475035</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.3630665564183531</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1465943842815647</v>
+      </c>
+      <c r="C60">
+        <v>-8.127555161170253</v>
+      </c>
+      <c r="D60">
+        <v>16.37444483882975</v>
+      </c>
+      <c r="E60">
+        <v>19.203</v>
+      </c>
+      <c r="F60">
+        <v>24.853</v>
+      </c>
+      <c r="G60">
+        <v>0.351</v>
+      </c>
+      <c r="H60">
+        <v>37.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.88</v>
+      </c>
+      <c r="K60">
+        <v>0.251</v>
+      </c>
+      <c r="L60">
+        <v>1.629</v>
+      </c>
+      <c r="M60">
+        <v>4.5654961</v>
+      </c>
+      <c r="N60">
+        <v>-2.9364961</v>
+      </c>
+      <c r="O60">
+        <v>-0.939678752</v>
+      </c>
+      <c r="P60">
+        <v>-1.996817348</v>
+      </c>
+      <c r="Q60">
+        <v>-1.745817348</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1243181233797325</v>
+      </c>
+      <c r="T60">
+        <v>1.401604752897261</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.1141781722253579</v>
+      </c>
+      <c r="W60">
+        <v>0.1627254697622017</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.3568067882042436</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1483383842815647</v>
+      </c>
+      <c r="C61">
+        <v>-8.761444715619398</v>
+      </c>
+      <c r="D61">
+        <v>16.1690552843806</v>
+      </c>
+      <c r="E61">
+        <v>19.6315</v>
+      </c>
+      <c r="F61">
+        <v>25.2815</v>
+      </c>
+      <c r="G61">
+        <v>0.351</v>
+      </c>
+      <c r="H61">
+        <v>37.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.88</v>
+      </c>
+      <c r="K61">
+        <v>0.251</v>
+      </c>
+      <c r="L61">
+        <v>1.629</v>
+      </c>
+      <c r="M61">
+        <v>4.644211550000001</v>
+      </c>
+      <c r="N61">
+        <v>-3.015211550000001</v>
+      </c>
+      <c r="O61">
+        <v>-0.9648676960000002</v>
+      </c>
+      <c r="P61">
+        <v>-2.050343854</v>
+      </c>
+      <c r="Q61">
+        <v>-1.799343854</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1271234434621651</v>
+      </c>
+      <c r="T61">
+        <v>1.435790234675244</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.112242948967301</v>
+      </c>
+      <c r="W61">
+        <v>0.1630809702747068</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.3507592155228156</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1500823842815647</v>
+      </c>
+      <c r="C62">
+        <v>-9.390245573996406</v>
+      </c>
+      <c r="D62">
+        <v>15.9687544260036</v>
+      </c>
+      <c r="E62">
+        <v>20.06</v>
+      </c>
+      <c r="F62">
+        <v>25.71</v>
+      </c>
+      <c r="G62">
+        <v>0.351</v>
+      </c>
+      <c r="H62">
+        <v>37.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.88</v>
+      </c>
+      <c r="K62">
+        <v>0.251</v>
+      </c>
+      <c r="L62">
+        <v>1.629</v>
+      </c>
+      <c r="M62">
+        <v>4.722927</v>
+      </c>
+      <c r="N62">
+        <v>-3.093927</v>
+      </c>
+      <c r="O62">
+        <v>-0.9900566400000002</v>
+      </c>
+      <c r="P62">
+        <v>-2.10387036</v>
+      </c>
+      <c r="Q62">
+        <v>-1.85287036</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1300690295487192</v>
+      </c>
+      <c r="T62">
+        <v>1.471684990542125</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.1103722331511793</v>
+      </c>
+      <c r="W62">
+        <v>0.1634246207701283</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.3449132285974355</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1518263842815647</v>
+      </c>
+      <c r="C63">
+        <v>-10.01414453720825</v>
+      </c>
+      <c r="D63">
+        <v>15.77335546279175</v>
+      </c>
+      <c r="E63">
+        <v>20.4885</v>
+      </c>
+      <c r="F63">
+        <v>26.1385</v>
+      </c>
+      <c r="G63">
+        <v>0.351</v>
+      </c>
+      <c r="H63">
+        <v>37.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.88</v>
+      </c>
+      <c r="K63">
+        <v>0.251</v>
+      </c>
+      <c r="L63">
+        <v>1.629</v>
+      </c>
+      <c r="M63">
+        <v>4.80164245</v>
+      </c>
+      <c r="N63">
+        <v>-3.17264245</v>
+      </c>
+      <c r="O63">
+        <v>-1.015245584</v>
+      </c>
+      <c r="P63">
+        <v>-2.157396866</v>
+      </c>
+      <c r="Q63">
+        <v>-1.906396866</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1331656713320197</v>
+      </c>
+      <c r="T63">
+        <v>1.509420503120128</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.1085628522798485</v>
+      </c>
+      <c r="W63">
+        <v>0.1637570040361918</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.3392589133745266</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1535703842815647</v>
+      </c>
+      <c r="C64">
+        <v>-10.63331937365577</v>
+      </c>
+      <c r="D64">
+        <v>15.58268062634423</v>
+      </c>
+      <c r="E64">
+        <v>20.917</v>
+      </c>
+      <c r="F64">
+        <v>26.567</v>
+      </c>
+      <c r="G64">
+        <v>0.351</v>
+      </c>
+      <c r="H64">
+        <v>37.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.88</v>
+      </c>
+      <c r="K64">
+        <v>0.251</v>
+      </c>
+      <c r="L64">
+        <v>1.629</v>
+      </c>
+      <c r="M64">
+        <v>4.8803579</v>
+      </c>
+      <c r="N64">
+        <v>-3.2513579</v>
+      </c>
+      <c r="O64">
+        <v>-1.040434528</v>
+      </c>
+      <c r="P64">
+        <v>-2.210923372</v>
+      </c>
+      <c r="Q64">
+        <v>-1.959923372</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1364252942618097</v>
+      </c>
+      <c r="T64">
+        <v>1.5491420953075</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.1068118385333994</v>
+      </c>
+      <c r="W64">
+        <v>0.1640786652614145</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.3337869954168731</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1553143842815647</v>
+      </c>
+      <c r="C65">
+        <v>-11.24793935865629</v>
+      </c>
+      <c r="D65">
+        <v>15.39656064134371</v>
+      </c>
+      <c r="E65">
+        <v>21.3455</v>
+      </c>
+      <c r="F65">
+        <v>26.9955</v>
+      </c>
+      <c r="G65">
+        <v>0.351</v>
+      </c>
+      <c r="H65">
+        <v>37.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.88</v>
+      </c>
+      <c r="K65">
+        <v>0.251</v>
+      </c>
+      <c r="L65">
+        <v>1.629</v>
+      </c>
+      <c r="M65">
+        <v>4.95907335</v>
+      </c>
+      <c r="N65">
+        <v>-3.33007335</v>
+      </c>
+      <c r="O65">
+        <v>-1.065623472</v>
+      </c>
+      <c r="P65">
+        <v>-2.264449878</v>
+      </c>
+      <c r="Q65">
+        <v>-2.013449878</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1398611130256424</v>
+      </c>
+      <c r="T65">
+        <v>1.591010800586081</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.1051164125249327</v>
+      </c>
+      <c r="W65">
+        <v>0.1643901150191699</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.3284887891404147</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1570583842815647</v>
+      </c>
+      <c r="C66">
+        <v>-11.85816577566513</v>
+      </c>
+      <c r="D66">
+        <v>15.21483422433488</v>
+      </c>
+      <c r="E66">
+        <v>21.774</v>
+      </c>
+      <c r="F66">
+        <v>27.424</v>
+      </c>
+      <c r="G66">
+        <v>0.351</v>
+      </c>
+      <c r="H66">
+        <v>37.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.88</v>
+      </c>
+      <c r="K66">
+        <v>0.251</v>
+      </c>
+      <c r="L66">
+        <v>1.629</v>
+      </c>
+      <c r="M66">
+        <v>5.0377888</v>
+      </c>
+      <c r="N66">
+        <v>-3.4087888</v>
+      </c>
+      <c r="O66">
+        <v>-1.090812416</v>
+      </c>
+      <c r="P66">
+        <v>-2.317976384000001</v>
+      </c>
+      <c r="Q66">
+        <v>-2.066976384000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.143487810609688</v>
+      </c>
+      <c r="T66">
+        <v>1.635205545046805</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.1034739685792306</v>
+      </c>
+      <c r="W66">
+        <v>0.1646918319719953</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.3233561518100957</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1588023842815647</v>
+      </c>
+      <c r="C67">
+        <v>-12.4641523824156</v>
+      </c>
+      <c r="D67">
+        <v>15.0373476175844</v>
+      </c>
+      <c r="E67">
+        <v>22.2025</v>
+      </c>
+      <c r="F67">
+        <v>27.8525</v>
+      </c>
+      <c r="G67">
+        <v>0.351</v>
+      </c>
+      <c r="H67">
+        <v>37.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.88</v>
+      </c>
+      <c r="K67">
+        <v>0.251</v>
+      </c>
+      <c r="L67">
+        <v>1.629</v>
+      </c>
+      <c r="M67">
+        <v>5.11650425</v>
+      </c>
+      <c r="N67">
+        <v>-3.48750425</v>
+      </c>
+      <c r="O67">
+        <v>-1.11600136</v>
+      </c>
+      <c r="P67">
+        <v>-2.37150289</v>
+      </c>
+      <c r="Q67">
+        <v>-2.12050289</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1473217480556791</v>
+      </c>
+      <c r="T67">
+        <v>1.681925703476714</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.1018820613703194</v>
+      </c>
+      <c r="W67">
+        <v>0.1649842653262723</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3183814417822481</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1605463842815647</v>
+      </c>
+      <c r="C68">
+        <v>-13.06604584480903</v>
+      </c>
+      <c r="D68">
+        <v>14.86395415519098</v>
+      </c>
+      <c r="E68">
+        <v>22.631</v>
+      </c>
+      <c r="F68">
+        <v>28.281</v>
+      </c>
+      <c r="G68">
+        <v>0.351</v>
+      </c>
+      <c r="H68">
+        <v>37.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.88</v>
+      </c>
+      <c r="K68">
+        <v>0.251</v>
+      </c>
+      <c r="L68">
+        <v>1.629</v>
+      </c>
+      <c r="M68">
+        <v>5.195219700000001</v>
+      </c>
+      <c r="N68">
+        <v>-3.566219700000001</v>
+      </c>
+      <c r="O68">
+        <v>-1.141190304</v>
+      </c>
+      <c r="P68">
+        <v>-2.425029396000001</v>
+      </c>
+      <c r="Q68">
+        <v>-2.174029396000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1513812112337873</v>
+      </c>
+      <c r="T68">
+        <v>1.731394106520147</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.1003383937737994</v>
+      </c>
+      <c r="W68">
+        <v>0.1652678370637531</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.313557480543123</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1622903842815647</v>
+      </c>
+      <c r="C69">
+        <v>-13.6639861411282</v>
+      </c>
+      <c r="D69">
+        <v>14.6945138588718</v>
+      </c>
+      <c r="E69">
+        <v>23.0595</v>
+      </c>
+      <c r="F69">
+        <v>28.7095</v>
+      </c>
+      <c r="G69">
+        <v>0.351</v>
+      </c>
+      <c r="H69">
+        <v>37.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.88</v>
+      </c>
+      <c r="K69">
+        <v>0.251</v>
+      </c>
+      <c r="L69">
+        <v>1.629</v>
+      </c>
+      <c r="M69">
+        <v>5.273935150000001</v>
+      </c>
+      <c r="N69">
+        <v>-3.644935150000001</v>
+      </c>
+      <c r="O69">
+        <v>-1.166379248</v>
+      </c>
+      <c r="P69">
+        <v>-2.478555902000001</v>
+      </c>
+      <c r="Q69">
+        <v>-2.227555902000001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.155686702483296</v>
+      </c>
+      <c r="T69">
+        <v>1.783860594596515</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.09884080580702627</v>
+      </c>
+      <c r="W69">
+        <v>0.1655429439732493</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.3088775181469571</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1640343842815647</v>
+      </c>
+      <c r="C70">
+        <v>-14.25810693891572</v>
+      </c>
+      <c r="D70">
+        <v>14.52889306108429</v>
+      </c>
+      <c r="E70">
+        <v>23.488</v>
+      </c>
+      <c r="F70">
+        <v>29.138</v>
+      </c>
+      <c r="G70">
+        <v>0.351</v>
+      </c>
+      <c r="H70">
+        <v>37.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.88</v>
+      </c>
+      <c r="K70">
+        <v>0.251</v>
+      </c>
+      <c r="L70">
+        <v>1.629</v>
+      </c>
+      <c r="M70">
+        <v>5.3526506</v>
+      </c>
+      <c r="N70">
+        <v>-3.7236506</v>
+      </c>
+      <c r="O70">
+        <v>-1.191568192</v>
+      </c>
+      <c r="P70">
+        <v>-2.532082408</v>
+      </c>
+      <c r="Q70">
+        <v>-2.281082408000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.160261286935899</v>
+      </c>
+      <c r="T70">
+        <v>1.839606238177656</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.09738726454515824</v>
+      </c>
+      <c r="W70">
+        <v>0.1658099595030544</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.3043352017036195</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1657783842815647</v>
+      </c>
+      <c r="C71">
+        <v>-14.8485359466497</v>
+      </c>
+      <c r="D71">
+        <v>14.3669640533503</v>
+      </c>
+      <c r="E71">
+        <v>23.91650000000001</v>
+      </c>
+      <c r="F71">
+        <v>29.5665</v>
+      </c>
+      <c r="G71">
+        <v>0.351</v>
+      </c>
+      <c r="H71">
+        <v>37.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.88</v>
+      </c>
+      <c r="K71">
+        <v>0.251</v>
+      </c>
+      <c r="L71">
+        <v>1.629</v>
+      </c>
+      <c r="M71">
+        <v>5.431366050000001</v>
+      </c>
+      <c r="N71">
+        <v>-3.802366050000001</v>
+      </c>
+      <c r="O71">
+        <v>-1.216757136</v>
+      </c>
+      <c r="P71">
+        <v>-2.585608914000001</v>
+      </c>
+      <c r="Q71">
+        <v>-2.334608914000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1651310058693151</v>
+      </c>
+      <c r="T71">
+        <v>1.898948374893065</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.09597585491406899</v>
+      </c>
+      <c r="W71">
+        <v>0.1660692354522855</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.2999245466064655</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1675223842815647</v>
+      </c>
+      <c r="C72">
+        <v>-15.43539524216161</v>
+      </c>
+      <c r="D72">
+        <v>14.20860475783839</v>
+      </c>
+      <c r="E72">
+        <v>24.34500000000001</v>
+      </c>
+      <c r="F72">
+        <v>29.995</v>
+      </c>
+      <c r="G72">
+        <v>0.351</v>
+      </c>
+      <c r="H72">
+        <v>37.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.88</v>
+      </c>
+      <c r="K72">
+        <v>0.251</v>
+      </c>
+      <c r="L72">
+        <v>1.629</v>
+      </c>
+      <c r="M72">
+        <v>5.510081500000001</v>
+      </c>
+      <c r="N72">
+        <v>-3.881081500000001</v>
+      </c>
+      <c r="O72">
+        <v>-1.24194608</v>
+      </c>
+      <c r="P72">
+        <v>-2.639135420000001</v>
+      </c>
+      <c r="Q72">
+        <v>-2.388135420000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1703253727316256</v>
+      </c>
+      <c r="T72">
+        <v>1.962246654056167</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.09460477127243942</v>
+      </c>
+      <c r="W72">
+        <v>0.1663211035172529</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2956399102263731</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1692663842815647</v>
+      </c>
+      <c r="C73">
+        <v>-16.01880157957094</v>
+      </c>
+      <c r="D73">
+        <v>14.05369842042906</v>
+      </c>
+      <c r="E73">
+        <v>24.7735</v>
+      </c>
+      <c r="F73">
+        <v>30.4235</v>
+      </c>
+      <c r="G73">
+        <v>0.351</v>
+      </c>
+      <c r="H73">
+        <v>37.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.88</v>
+      </c>
+      <c r="K73">
+        <v>0.251</v>
+      </c>
+      <c r="L73">
+        <v>1.629</v>
+      </c>
+      <c r="M73">
+        <v>5.58879695</v>
+      </c>
+      <c r="N73">
+        <v>-3.95979695</v>
+      </c>
+      <c r="O73">
+        <v>-1.267135024</v>
+      </c>
+      <c r="P73">
+        <v>-2.692661926</v>
+      </c>
+      <c r="Q73">
+        <v>-2.441661926</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1758779717913368</v>
+      </c>
+      <c r="T73">
+        <v>2.029910331782241</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.09327230970522198</v>
+      </c>
+      <c r="W73">
+        <v>0.1665658767071507</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2914759678288187</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1710103842815647</v>
+      </c>
+      <c r="C74">
+        <v>-16.59886667635874</v>
+      </c>
+      <c r="D74">
+        <v>13.90213332364127</v>
+      </c>
+      <c r="E74">
+        <v>25.202</v>
+      </c>
+      <c r="F74">
+        <v>30.852</v>
+      </c>
+      <c r="G74">
+        <v>0.351</v>
+      </c>
+      <c r="H74">
+        <v>37.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.88</v>
+      </c>
+      <c r="K74">
+        <v>0.251</v>
+      </c>
+      <c r="L74">
+        <v>1.629</v>
+      </c>
+      <c r="M74">
+        <v>5.667512400000001</v>
+      </c>
+      <c r="N74">
+        <v>-4.0385124</v>
+      </c>
+      <c r="O74">
+        <v>-1.292323968</v>
+      </c>
+      <c r="P74">
+        <v>-2.746188432</v>
+      </c>
+      <c r="Q74">
+        <v>-2.495188432</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1818271850695988</v>
+      </c>
+      <c r="T74">
+        <v>2.102407129345892</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.09197686095931611</v>
+      </c>
+      <c r="W74">
+        <v>0.1668038506417736</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2874276904978629</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1727543842815647</v>
+      </c>
+      <c r="C75">
+        <v>-17.17569748206332</v>
+      </c>
+      <c r="D75">
+        <v>13.75380251793668</v>
+      </c>
+      <c r="E75">
+        <v>25.6305</v>
+      </c>
+      <c r="F75">
+        <v>31.2805</v>
+      </c>
+      <c r="G75">
+        <v>0.351</v>
+      </c>
+      <c r="H75">
+        <v>37.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.88</v>
+      </c>
+      <c r="K75">
+        <v>0.251</v>
+      </c>
+      <c r="L75">
+        <v>1.629</v>
+      </c>
+      <c r="M75">
+        <v>5.74622785</v>
+      </c>
+      <c r="N75">
+        <v>-4.117227850000001</v>
+      </c>
+      <c r="O75">
+        <v>-1.317512912</v>
+      </c>
+      <c r="P75">
+        <v>-2.799714938000001</v>
+      </c>
+      <c r="Q75">
+        <v>-2.548714938000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1882170808129173</v>
+      </c>
+      <c r="T75">
+        <v>2.180274060062407</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.09071690395987343</v>
+      </c>
+      <c r="W75">
+        <v>0.1670353047425713</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2834903248746043</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1744983842815647</v>
+      </c>
+      <c r="C76">
+        <v>-17.74939642995616</v>
+      </c>
+      <c r="D76">
+        <v>13.60860357004383</v>
+      </c>
+      <c r="E76">
+        <v>26.059</v>
+      </c>
+      <c r="F76">
+        <v>31.709</v>
+      </c>
+      <c r="G76">
+        <v>0.351</v>
+      </c>
+      <c r="H76">
+        <v>37.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.88</v>
+      </c>
+      <c r="K76">
+        <v>0.251</v>
+      </c>
+      <c r="L76">
+        <v>1.629</v>
+      </c>
+      <c r="M76">
+        <v>5.8249433</v>
+      </c>
+      <c r="N76">
+        <v>-4.1959433</v>
+      </c>
+      <c r="O76">
+        <v>-1.342701856</v>
+      </c>
+      <c r="P76">
+        <v>-2.853241444</v>
+      </c>
+      <c r="Q76">
+        <v>-2.602241444</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1950985069980295</v>
+      </c>
+      <c r="T76">
+        <v>2.264130754680192</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.08949099985230757</v>
+      </c>
+      <c r="W76">
+        <v>0.1672605033271311</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2796593745384612</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1762423842815647</v>
+      </c>
+      <c r="C77">
+        <v>-18.3200616729428</v>
+      </c>
+      <c r="D77">
+        <v>13.4664383270572</v>
+      </c>
+      <c r="E77">
+        <v>26.4875</v>
+      </c>
+      <c r="F77">
+        <v>32.1375</v>
+      </c>
+      <c r="G77">
+        <v>0.351</v>
+      </c>
+      <c r="H77">
+        <v>37.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.88</v>
+      </c>
+      <c r="K77">
+        <v>0.251</v>
+      </c>
+      <c r="L77">
+        <v>1.629</v>
+      </c>
+      <c r="M77">
+        <v>5.903658750000001</v>
+      </c>
+      <c r="N77">
+        <v>-4.27465875</v>
+      </c>
+      <c r="O77">
+        <v>-1.3678908</v>
+      </c>
+      <c r="P77">
+        <v>-2.90676795</v>
+      </c>
+      <c r="Q77">
+        <v>-2.65576795</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2025304472779507</v>
+      </c>
+      <c r="T77">
+        <v>2.3546959848674</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.08829778652094346</v>
+      </c>
+      <c r="W77">
+        <v>0.1674796966161027</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2759305828779484</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1779863842815647</v>
+      </c>
+      <c r="C78">
+        <v>-18.88778730483012</v>
+      </c>
+      <c r="D78">
+        <v>13.32721269516988</v>
+      </c>
+      <c r="E78">
+        <v>26.916</v>
+      </c>
+      <c r="F78">
+        <v>32.566</v>
+      </c>
+      <c r="G78">
+        <v>0.351</v>
+      </c>
+      <c r="H78">
+        <v>37.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.88</v>
+      </c>
+      <c r="K78">
+        <v>0.251</v>
+      </c>
+      <c r="L78">
+        <v>1.629</v>
+      </c>
+      <c r="M78">
+        <v>5.982374200000001</v>
+      </c>
+      <c r="N78">
+        <v>-4.353374200000001</v>
+      </c>
+      <c r="O78">
+        <v>-1.393079744</v>
+      </c>
+      <c r="P78">
+        <v>-2.960294456000001</v>
+      </c>
+      <c r="Q78">
+        <v>-2.709294456000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.210581715914532</v>
+      </c>
+      <c r="T78">
+        <v>2.452808317570208</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.08713597354040474</v>
+      </c>
+      <c r="W78">
+        <v>0.1676931216606277</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2722999173137647</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1797303842815647</v>
+      </c>
+      <c r="C79">
+        <v>-19.4526635680085</v>
+      </c>
+      <c r="D79">
+        <v>13.1908364319915</v>
+      </c>
+      <c r="E79">
+        <v>27.3445</v>
+      </c>
+      <c r="F79">
+        <v>32.9945</v>
+      </c>
+      <c r="G79">
+        <v>0.351</v>
+      </c>
+      <c r="H79">
+        <v>37.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.88</v>
+      </c>
+      <c r="K79">
+        <v>0.251</v>
+      </c>
+      <c r="L79">
+        <v>1.629</v>
+      </c>
+      <c r="M79">
+        <v>6.06108965</v>
+      </c>
+      <c r="N79">
+        <v>-4.43208965</v>
+      </c>
+      <c r="O79">
+        <v>-1.418268688</v>
+      </c>
+      <c r="P79">
+        <v>-3.013820962</v>
+      </c>
+      <c r="Q79">
+        <v>-2.762820962</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2193330948673377</v>
+      </c>
+      <c r="T79">
+        <v>2.559452157464565</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.08600433752039947</v>
+      </c>
+      <c r="W79">
+        <v>0.1679010031975026</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2687635547512485</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1814743842815647</v>
+      </c>
+      <c r="C80">
+        <v>-20.01477704851192</v>
+      </c>
+      <c r="D80">
+        <v>13.05722295148808</v>
+      </c>
+      <c r="E80">
+        <v>27.773</v>
+      </c>
+      <c r="F80">
+        <v>33.423</v>
+      </c>
+      <c r="G80">
+        <v>0.351</v>
+      </c>
+      <c r="H80">
+        <v>37.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.88</v>
+      </c>
+      <c r="K80">
+        <v>0.251</v>
+      </c>
+      <c r="L80">
+        <v>1.629</v>
+      </c>
+      <c r="M80">
+        <v>6.1398051</v>
+      </c>
+      <c r="N80">
+        <v>-4.510805100000001</v>
+      </c>
+      <c r="O80">
+        <v>-1.443457632</v>
+      </c>
+      <c r="P80">
+        <v>-3.067347468</v>
+      </c>
+      <c r="Q80">
+        <v>-2.816347468</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2288800537249441</v>
+      </c>
+      <c r="T80">
+        <v>2.675790891894773</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.08490171780859949</v>
+      </c>
+      <c r="W80">
+        <v>0.1681035544385603</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2653178681518733</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1832183842815647</v>
+      </c>
+      <c r="C81">
+        <v>-20.57421085934201</v>
+      </c>
+      <c r="D81">
+        <v>12.926289140658</v>
+      </c>
+      <c r="E81">
+        <v>28.2015</v>
+      </c>
+      <c r="F81">
+        <v>33.8515</v>
+      </c>
+      <c r="G81">
+        <v>0.351</v>
+      </c>
+      <c r="H81">
+        <v>37.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.88</v>
+      </c>
+      <c r="K81">
+        <v>0.251</v>
+      </c>
+      <c r="L81">
+        <v>1.629</v>
+      </c>
+      <c r="M81">
+        <v>6.21852055</v>
+      </c>
+      <c r="N81">
+        <v>-4.58952055</v>
+      </c>
+      <c r="O81">
+        <v>-1.468646576</v>
+      </c>
+      <c r="P81">
+        <v>-3.120873974</v>
+      </c>
+      <c r="Q81">
+        <v>-2.869873974</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2393362467594652</v>
+      </c>
+      <c r="T81">
+        <v>2.803209505794524</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.08382701251988305</v>
+      </c>
+      <c r="W81">
+        <v>0.1683009778000975</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.2619594141246346</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1849623842815647</v>
+      </c>
+      <c r="C82">
+        <v>-21.13104481287171</v>
+      </c>
+      <c r="D82">
+        <v>12.7979551871283</v>
+      </c>
+      <c r="E82">
+        <v>28.63</v>
+      </c>
+      <c r="F82">
+        <v>34.28</v>
+      </c>
+      <c r="G82">
+        <v>0.351</v>
+      </c>
+      <c r="H82">
+        <v>37.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.88</v>
+      </c>
+      <c r="K82">
+        <v>0.251</v>
+      </c>
+      <c r="L82">
+        <v>1.629</v>
+      </c>
+      <c r="M82">
+        <v>6.297236000000001</v>
+      </c>
+      <c r="N82">
+        <v>-4.668236</v>
+      </c>
+      <c r="O82">
+        <v>-1.49383552</v>
+      </c>
+      <c r="P82">
+        <v>-3.17440048</v>
+      </c>
+      <c r="Q82">
+        <v>-2.92340048</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2508380590974384</v>
+      </c>
+      <c r="T82">
+        <v>2.94336998108425</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.08277917486338449</v>
+      </c>
+      <c r="W82">
+        <v>0.1684934655775963</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.2586849214480766</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1867063842815647</v>
+      </c>
+      <c r="C83">
+        <v>-21.68535558308011</v>
+      </c>
+      <c r="D83">
+        <v>12.67214441691989</v>
+      </c>
+      <c r="E83">
+        <v>29.0585</v>
+      </c>
+      <c r="F83">
+        <v>34.7085</v>
+      </c>
+      <c r="G83">
+        <v>0.351</v>
+      </c>
+      <c r="H83">
+        <v>37.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.88</v>
+      </c>
+      <c r="K83">
+        <v>0.251</v>
+      </c>
+      <c r="L83">
+        <v>1.629</v>
+      </c>
+      <c r="M83">
+        <v>6.375951450000001</v>
+      </c>
+      <c r="N83">
+        <v>-4.746951450000001</v>
+      </c>
+      <c r="O83">
+        <v>-1.519024464</v>
+      </c>
+      <c r="P83">
+        <v>-3.227926986000001</v>
+      </c>
+      <c r="Q83">
+        <v>-2.976926986000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2635505885236193</v>
+      </c>
+      <c r="T83">
+        <v>3.098284190615</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.08175720974161432</v>
+      </c>
+      <c r="W83">
+        <v>0.1686812005704654</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.2554912804425447</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1884503842815647</v>
+      </c>
+      <c r="C84">
+        <v>-22.23721685831117</v>
+      </c>
+      <c r="D84">
+        <v>12.54878314168883</v>
+      </c>
+      <c r="E84">
+        <v>29.487</v>
+      </c>
+      <c r="F84">
+        <v>35.137</v>
+      </c>
+      <c r="G84">
+        <v>0.351</v>
+      </c>
+      <c r="H84">
+        <v>37.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.88</v>
+      </c>
+      <c r="K84">
+        <v>0.251</v>
+      </c>
+      <c r="L84">
+        <v>1.629</v>
+      </c>
+      <c r="M84">
+        <v>6.4546669</v>
+      </c>
+      <c r="N84">
+        <v>-4.8256669</v>
+      </c>
+      <c r="O84">
+        <v>-1.544213408</v>
+      </c>
+      <c r="P84">
+        <v>-3.281453492</v>
+      </c>
+      <c r="Q84">
+        <v>-3.030453492</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2776756212193761</v>
+      </c>
+      <c r="T84">
+        <v>3.270411090093612</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.08076017059842391</v>
+      </c>
+      <c r="W84">
+        <v>0.1688643566610695</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2523755331200748</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1901943842815647</v>
+      </c>
+      <c r="C85">
+        <v>-22.78669948519605</v>
+      </c>
+      <c r="D85">
+        <v>12.42780051480396</v>
+      </c>
+      <c r="E85">
+        <v>29.91550000000001</v>
+      </c>
+      <c r="F85">
+        <v>35.56550000000001</v>
+      </c>
+      <c r="G85">
+        <v>0.351</v>
+      </c>
+      <c r="H85">
+        <v>37.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.88</v>
+      </c>
+      <c r="K85">
+        <v>0.251</v>
+      </c>
+      <c r="L85">
+        <v>1.629</v>
+      </c>
+      <c r="M85">
+        <v>6.533382350000001</v>
+      </c>
+      <c r="N85">
+        <v>-4.904382350000001</v>
+      </c>
+      <c r="O85">
+        <v>-1.569402352</v>
+      </c>
+      <c r="P85">
+        <v>-3.334979998000001</v>
+      </c>
+      <c r="Q85">
+        <v>-3.083979998000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2934624224675747</v>
+      </c>
+      <c r="T85">
+        <v>3.462788213040295</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.07978715649482843</v>
+      </c>
+      <c r="W85">
+        <v>0.1690430993519</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2493348640463389</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1919383842815647</v>
+      </c>
+      <c r="C86">
+        <v>-23.33387160432958</v>
+      </c>
+      <c r="D86">
+        <v>12.30912839567042</v>
+      </c>
+      <c r="E86">
+        <v>30.344</v>
+      </c>
+      <c r="F86">
+        <v>35.994</v>
+      </c>
+      <c r="G86">
+        <v>0.351</v>
+      </c>
+      <c r="H86">
+        <v>37.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.88</v>
+      </c>
+      <c r="K86">
+        <v>0.251</v>
+      </c>
+      <c r="L86">
+        <v>1.629</v>
+      </c>
+      <c r="M86">
+        <v>6.6120978</v>
+      </c>
+      <c r="N86">
+        <v>-4.983097799999999</v>
+      </c>
+      <c r="O86">
+        <v>-1.594591296</v>
+      </c>
+      <c r="P86">
+        <v>-3.388506504</v>
+      </c>
+      <c r="Q86">
+        <v>-3.137506504</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3112225738717979</v>
+      </c>
+      <c r="T86">
+        <v>3.679212476355311</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.07883730939369954</v>
+      </c>
+      <c r="W86">
+        <v>0.1692175862643774</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2463665918553111</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1936823842815647</v>
+      </c>
+      <c r="C87">
+        <v>-23.87879877824695</v>
+      </c>
+      <c r="D87">
+        <v>12.19270122175305</v>
+      </c>
+      <c r="E87">
+        <v>30.7725</v>
+      </c>
+      <c r="F87">
+        <v>36.4225</v>
+      </c>
+      <c r="G87">
+        <v>0.351</v>
+      </c>
+      <c r="H87">
+        <v>37.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.88</v>
+      </c>
+      <c r="K87">
+        <v>0.251</v>
+      </c>
+      <c r="L87">
+        <v>1.629</v>
+      </c>
+      <c r="M87">
+        <v>6.69081325</v>
+      </c>
+      <c r="N87">
+        <v>-5.06181325</v>
+      </c>
+      <c r="O87">
+        <v>-1.61978024</v>
+      </c>
+      <c r="P87">
+        <v>-3.44203301</v>
+      </c>
+      <c r="Q87">
+        <v>-3.19103301</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3313507454632512</v>
+      </c>
+      <c r="T87">
+        <v>3.924493308112333</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.07790981163612661</v>
+      </c>
+      <c r="W87">
+        <v>0.1693879676024435</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2434681613628955</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1954263842815647</v>
+      </c>
+      <c r="C88">
+        <v>-24.42154411220546</v>
+      </c>
+      <c r="D88">
+        <v>12.07845588779454</v>
+      </c>
+      <c r="E88">
+        <v>31.201</v>
+      </c>
+      <c r="F88">
+        <v>36.851</v>
+      </c>
+      <c r="G88">
+        <v>0.351</v>
+      </c>
+      <c r="H88">
+        <v>37.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.88</v>
+      </c>
+      <c r="K88">
+        <v>0.251</v>
+      </c>
+      <c r="L88">
+        <v>1.629</v>
+      </c>
+      <c r="M88">
+        <v>6.7695287</v>
+      </c>
+      <c r="N88">
+        <v>-5.140528699999999</v>
+      </c>
+      <c r="O88">
+        <v>-1.644969184</v>
+      </c>
+      <c r="P88">
+        <v>-3.495559515999999</v>
+      </c>
+      <c r="Q88">
+        <v>-3.244559515999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3543543701391977</v>
+      </c>
+      <c r="T88">
+        <v>4.204814258691785</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.07700388359384606</v>
+      </c>
+      <c r="W88">
+        <v>0.1695543865838105</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.240637136230769</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1971703842815647</v>
+      </c>
+      <c r="C89">
+        <v>-24.96216836823904</v>
+      </c>
+      <c r="D89">
+        <v>11.96633163176096</v>
+      </c>
+      <c r="E89">
+        <v>31.6295</v>
+      </c>
+      <c r="F89">
+        <v>37.2795</v>
+      </c>
+      <c r="G89">
+        <v>0.351</v>
+      </c>
+      <c r="H89">
+        <v>37.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.88</v>
+      </c>
+      <c r="K89">
+        <v>0.251</v>
+      </c>
+      <c r="L89">
+        <v>1.629</v>
+      </c>
+      <c r="M89">
+        <v>6.84824415</v>
+      </c>
+      <c r="N89">
+        <v>-5.21924415</v>
+      </c>
+      <c r="O89">
+        <v>-1.670158128</v>
+      </c>
+      <c r="P89">
+        <v>-3.549086022</v>
+      </c>
+      <c r="Q89">
+        <v>-3.298086022</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.380897013996059</v>
+      </c>
+      <c r="T89">
+        <v>4.528261509360384</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.07611878148357196</v>
+      </c>
+      <c r="W89">
+        <v>0.1697169798414678</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2378711921361625</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1989143842815647</v>
+      </c>
+      <c r="C90">
+        <v>-25.50073007291858</v>
+      </c>
+      <c r="D90">
+        <v>11.85626992708142</v>
+      </c>
+      <c r="E90">
+        <v>32.058</v>
+      </c>
+      <c r="F90">
+        <v>37.708</v>
+      </c>
+      <c r="G90">
+        <v>0.351</v>
+      </c>
+      <c r="H90">
+        <v>37.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.88</v>
+      </c>
+      <c r="K90">
+        <v>0.251</v>
+      </c>
+      <c r="L90">
+        <v>1.629</v>
+      </c>
+      <c r="M90">
+        <v>6.9269596</v>
+      </c>
+      <c r="N90">
+        <v>-5.2979596</v>
+      </c>
+      <c r="O90">
+        <v>-1.695347072</v>
+      </c>
+      <c r="P90">
+        <v>-3.602612528</v>
+      </c>
+      <c r="Q90">
+        <v>-3.351612528</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.411863431829064</v>
+      </c>
+      <c r="T90">
+        <v>4.905616635140416</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.07525379533034955</v>
+      </c>
+      <c r="W90">
+        <v>0.1698758777978148</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2351681104073423</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2006583842815647</v>
+      </c>
+      <c r="C91">
+        <v>-26.03728561921963</v>
+      </c>
+      <c r="D91">
+        <v>11.74821438078037</v>
+      </c>
+      <c r="E91">
+        <v>32.48650000000001</v>
+      </c>
+      <c r="F91">
+        <v>38.13650000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.351</v>
+      </c>
+      <c r="H91">
+        <v>37.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.88</v>
+      </c>
+      <c r="K91">
+        <v>0.251</v>
+      </c>
+      <c r="L91">
+        <v>1.629</v>
+      </c>
+      <c r="M91">
+        <v>7.005675050000001</v>
+      </c>
+      <c r="N91">
+        <v>-5.376675050000001</v>
+      </c>
+      <c r="O91">
+        <v>-1.720536016000001</v>
+      </c>
+      <c r="P91">
+        <v>-3.656139034000001</v>
+      </c>
+      <c r="Q91">
+        <v>-3.405139034000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.448460107449888</v>
+      </c>
+      <c r="T91">
+        <v>5.351581783789545</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.07440824706821078</v>
+      </c>
+      <c r="W91">
+        <v>0.1700312050135697</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2325257720881586</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2024023842815647</v>
+      </c>
+      <c r="C92">
+        <v>-26.57188936286998</v>
+      </c>
+      <c r="D92">
+        <v>11.64211063713003</v>
+      </c>
+      <c r="E92">
+        <v>32.91500000000001</v>
+      </c>
+      <c r="F92">
+        <v>38.565</v>
+      </c>
+      <c r="G92">
+        <v>0.351</v>
+      </c>
+      <c r="H92">
+        <v>37.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.88</v>
+      </c>
+      <c r="K92">
+        <v>0.251</v>
+      </c>
+      <c r="L92">
+        <v>1.629</v>
+      </c>
+      <c r="M92">
+        <v>7.084390500000001</v>
+      </c>
+      <c r="N92">
+        <v>-5.455390500000002</v>
+      </c>
+      <c r="O92">
+        <v>-1.745724960000001</v>
+      </c>
+      <c r="P92">
+        <v>-3.709665540000001</v>
+      </c>
+      <c r="Q92">
+        <v>-3.458665540000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4923761181948769</v>
+      </c>
+      <c r="T92">
+        <v>5.886739962168501</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.07358148876745288</v>
+      </c>
+      <c r="W92">
+        <v>0.1701830805134189</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2299421523982902</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2041463842815647</v>
+      </c>
+      <c r="C93">
+        <v>-27.10459371352302</v>
+      </c>
+      <c r="D93">
+        <v>11.53790628647698</v>
+      </c>
+      <c r="E93">
+        <v>33.34350000000001</v>
+      </c>
+      <c r="F93">
+        <v>38.9935</v>
+      </c>
+      <c r="G93">
+        <v>0.351</v>
+      </c>
+      <c r="H93">
+        <v>37.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.88</v>
+      </c>
+      <c r="K93">
+        <v>0.251</v>
+      </c>
+      <c r="L93">
+        <v>1.629</v>
+      </c>
+      <c r="M93">
+        <v>7.163105950000001</v>
+      </c>
+      <c r="N93">
+        <v>-5.534105950000001</v>
+      </c>
+      <c r="O93">
+        <v>-1.770913904</v>
+      </c>
+      <c r="P93">
+        <v>-3.763192046</v>
+      </c>
+      <c r="Q93">
+        <v>-3.512192046</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5460512424387521</v>
+      </c>
+      <c r="T93">
+        <v>6.540822180187224</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.07277290097879956</v>
+      </c>
+      <c r="W93">
+        <v>0.1703316180901945</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2274153155587487</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2058903842815647</v>
+      </c>
+      <c r="C94">
+        <v>-27.63544922107825</v>
+      </c>
+      <c r="D94">
+        <v>11.43555077892176</v>
+      </c>
+      <c r="E94">
+        <v>33.77200000000001</v>
+      </c>
+      <c r="F94">
+        <v>39.422</v>
+      </c>
+      <c r="G94">
+        <v>0.351</v>
+      </c>
+      <c r="H94">
+        <v>37.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.88</v>
+      </c>
+      <c r="K94">
+        <v>0.251</v>
+      </c>
+      <c r="L94">
+        <v>1.629</v>
+      </c>
+      <c r="M94">
+        <v>7.241821400000001</v>
+      </c>
+      <c r="N94">
+        <v>-5.612821400000001</v>
+      </c>
+      <c r="O94">
+        <v>-1.796102848000001</v>
+      </c>
+      <c r="P94">
+        <v>-3.816718552000001</v>
+      </c>
+      <c r="Q94">
+        <v>-3.565718552000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6131451477435963</v>
+      </c>
+      <c r="T94">
+        <v>7.358424952710628</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.07198189118555175</v>
+      </c>
+      <c r="W94">
+        <v>0.1704769265892142</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2249434099548491</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2076343842815647</v>
+      </c>
+      <c r="C95">
+        <v>-28.1645046574474</v>
+      </c>
+      <c r="D95">
+        <v>11.3349953425526</v>
+      </c>
+      <c r="E95">
+        <v>34.20050000000001</v>
+      </c>
+      <c r="F95">
+        <v>39.8505</v>
+      </c>
+      <c r="G95">
+        <v>0.351</v>
+      </c>
+      <c r="H95">
+        <v>37.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.88</v>
+      </c>
+      <c r="K95">
+        <v>0.251</v>
+      </c>
+      <c r="L95">
+        <v>1.629</v>
+      </c>
+      <c r="M95">
+        <v>7.320536850000001</v>
+      </c>
+      <c r="N95">
+        <v>-5.69153685</v>
+      </c>
+      <c r="O95">
+        <v>-1.821291792</v>
+      </c>
+      <c r="P95">
+        <v>-3.870245058</v>
+      </c>
+      <c r="Q95">
+        <v>-3.619245058</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6994087402783958</v>
+      </c>
+      <c r="T95">
+        <v>8.409628517383576</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.07120789235559957</v>
+      </c>
+      <c r="W95">
+        <v>0.1706191101742764</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2225246636112487</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2093783842815647</v>
+      </c>
+      <c r="C96">
+        <v>-28.69180709404441</v>
+      </c>
+      <c r="D96">
+        <v>11.2361929059556</v>
+      </c>
+      <c r="E96">
+        <v>34.629</v>
+      </c>
+      <c r="F96">
+        <v>40.279</v>
+      </c>
+      <c r="G96">
+        <v>0.351</v>
+      </c>
+      <c r="H96">
+        <v>37.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.88</v>
+      </c>
+      <c r="K96">
+        <v>0.251</v>
+      </c>
+      <c r="L96">
+        <v>1.629</v>
+      </c>
+      <c r="M96">
+        <v>7.399252300000001</v>
+      </c>
+      <c r="N96">
+        <v>-5.770252300000001</v>
+      </c>
+      <c r="O96">
+        <v>-1.846480736</v>
+      </c>
+      <c r="P96">
+        <v>-3.923771564000001</v>
+      </c>
+      <c r="Q96">
+        <v>-3.672771564000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8144268636581288</v>
+      </c>
+      <c r="T96">
+        <v>9.811233270280841</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.07045036158585914</v>
+      </c>
+      <c r="W96">
+        <v>0.1707582685766777</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2201573799558098</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2111223842815647</v>
+      </c>
+      <c r="C97">
+        <v>-29.21740197525763</v>
+      </c>
+      <c r="D97">
+        <v>11.13909802474238</v>
+      </c>
+      <c r="E97">
+        <v>35.0575</v>
+      </c>
+      <c r="F97">
+        <v>40.7075</v>
+      </c>
+      <c r="G97">
+        <v>0.351</v>
+      </c>
+      <c r="H97">
+        <v>37.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.88</v>
+      </c>
+      <c r="K97">
+        <v>0.251</v>
+      </c>
+      <c r="L97">
+        <v>1.629</v>
+      </c>
+      <c r="M97">
+        <v>7.47796775</v>
+      </c>
+      <c r="N97">
+        <v>-5.84896775</v>
+      </c>
+      <c r="O97">
+        <v>-1.87166968</v>
+      </c>
+      <c r="P97">
+        <v>-3.97729807</v>
+      </c>
+      <c r="Q97">
+        <v>-3.72629807</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9754522363897551</v>
+      </c>
+      <c r="T97">
+        <v>11.77347992433702</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.06970877883232379</v>
+      </c>
+      <c r="W97">
+        <v>0.1708944973285021</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2178399338510119</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2128663842815647</v>
+      </c>
+      <c r="C98">
+        <v>-29.74133318814531</v>
+      </c>
+      <c r="D98">
+        <v>11.04366681185469</v>
+      </c>
+      <c r="E98">
+        <v>35.486</v>
+      </c>
+      <c r="F98">
+        <v>41.136</v>
+      </c>
+      <c r="G98">
+        <v>0.351</v>
+      </c>
+      <c r="H98">
+        <v>37.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.88</v>
+      </c>
+      <c r="K98">
+        <v>0.251</v>
+      </c>
+      <c r="L98">
+        <v>1.629</v>
+      </c>
+      <c r="M98">
+        <v>7.556683200000001</v>
+      </c>
+      <c r="N98">
+        <v>-5.927683200000001</v>
+      </c>
+      <c r="O98">
+        <v>-1.896858624</v>
+      </c>
+      <c r="P98">
+        <v>-4.030824576000001</v>
+      </c>
+      <c r="Q98">
+        <v>-3.779824576000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.216990295487191</v>
+      </c>
+      <c r="T98">
+        <v>14.71684990542124</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.06898264571948708</v>
+      </c>
+      <c r="W98">
+        <v>0.1710278879813302</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2155707678733971</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2146103842815647</v>
+      </c>
+      <c r="C99">
+        <v>-30.26364312857901</v>
+      </c>
+      <c r="D99">
+        <v>10.94985687142099</v>
+      </c>
+      <c r="E99">
+        <v>35.9145</v>
+      </c>
+      <c r="F99">
+        <v>41.5645</v>
+      </c>
+      <c r="G99">
+        <v>0.351</v>
+      </c>
+      <c r="H99">
+        <v>37.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.88</v>
+      </c>
+      <c r="K99">
+        <v>0.251</v>
+      </c>
+      <c r="L99">
+        <v>1.629</v>
+      </c>
+      <c r="M99">
+        <v>7.635398650000001</v>
+      </c>
+      <c r="N99">
+        <v>-6.006398650000001</v>
+      </c>
+      <c r="O99">
+        <v>-1.922047568</v>
+      </c>
+      <c r="P99">
+        <v>-4.084351082000001</v>
+      </c>
+      <c r="Q99">
+        <v>-3.833351082000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.619553727316255</v>
+      </c>
+      <c r="T99">
+        <v>19.62246654056165</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.0682714844234099</v>
+      </c>
+      <c r="W99">
+        <v>0.1711585283114196</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2133483888231559</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2163543842815647</v>
+      </c>
+      <c r="C100">
+        <v>-30.7843727640442</v>
+      </c>
+      <c r="D100">
+        <v>10.8576272359558</v>
+      </c>
+      <c r="E100">
+        <v>36.343</v>
+      </c>
+      <c r="F100">
+        <v>41.993</v>
+      </c>
+      <c r="G100">
+        <v>0.351</v>
+      </c>
+      <c r="H100">
+        <v>37.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.88</v>
+      </c>
+      <c r="K100">
+        <v>0.251</v>
+      </c>
+      <c r="L100">
+        <v>1.629</v>
+      </c>
+      <c r="M100">
+        <v>7.714114100000001</v>
+      </c>
+      <c r="N100">
+        <v>-6.0851141</v>
+      </c>
+      <c r="O100">
+        <v>-1.947236512</v>
+      </c>
+      <c r="P100">
+        <v>-4.137877588</v>
+      </c>
+      <c r="Q100">
+        <v>-3.886877588</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.424680590974382</v>
+      </c>
+      <c r="T100">
+        <v>29.43369981084247</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.06757483662317103</v>
+      </c>
+      <c r="W100">
+        <v>0.1712865025123235</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2111713644474095</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2180983842815647</v>
+      </c>
+      <c r="C101">
+        <v>-31.30356169329364</v>
+      </c>
+      <c r="D101">
+        <v>10.76693830670636</v>
+      </c>
+      <c r="E101">
+        <v>36.7715</v>
+      </c>
+      <c r="F101">
+        <v>42.4215</v>
+      </c>
+      <c r="G101">
+        <v>0.351</v>
+      </c>
+      <c r="H101">
+        <v>37.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.88</v>
+      </c>
+      <c r="K101">
+        <v>0.251</v>
+      </c>
+      <c r="L101">
+        <v>1.629</v>
+      </c>
+      <c r="M101">
+        <v>7.79282955</v>
+      </c>
+      <c r="N101">
+        <v>-6.163829550000001</v>
+      </c>
+      <c r="O101">
+        <v>-1.972425456</v>
+      </c>
+      <c r="P101">
+        <v>-4.191404094000001</v>
+      </c>
+      <c r="Q101">
+        <v>-3.940404094000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.840061181948763</v>
+      </c>
+      <c r="T101">
+        <v>58.86739962168493</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.06689226251586627</v>
+      </c>
+      <c r="W101">
+        <v>0.1714118913758353</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.209038320362082</v>
+      </c>
+      <c r="Z101">
         <v>0</v>
       </c>
     </row>
